--- a/data/census 2011/example.xlsx
+++ b/data/census 2011/example.xlsx
@@ -1,20 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24332"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DESMOND\Documents\GitHub\Lisbon-freguesias\data\census 2011\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53258807-EB7A-4B67-9B62-CB6110E9CFD6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-13470" yWindow="2355" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="373" uniqueCount="372">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="374" uniqueCount="373">
   <si>
     <t>Variable</t>
   </si>
@@ -1130,13 +1147,16 @@
   </si>
   <si>
     <t>在居住地市政当局工作的居民个人</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1152,13 +1172,56 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C5700"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -1185,25 +1248,45 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="3"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="4" applyFill="1"/>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  <cellStyles count="5">
+    <cellStyle name="好" xfId="1" builtinId="26"/>
+    <cellStyle name="差" xfId="2" builtinId="27"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="警告文本" xfId="4" builtinId="11"/>
+    <cellStyle name="适中" xfId="3" builtinId="28"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1245,7 +1328,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1277,9 +1360,27 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1311,6 +1412,24 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -1486,14 +1605,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G123"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:J191"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:XFD4"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="35.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="6.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="7" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="87" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="48.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="12" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:7">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1516,30 +1646,30 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7">
-      <c r="A2" t="s">
+    <row r="2" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B2">
-        <v>3623</v>
-      </c>
-      <c r="C2">
-        <v>14.48964946177201</v>
-      </c>
-      <c r="D2">
+      <c r="B2" s="2">
+        <v>3623</v>
+      </c>
+      <c r="C2" s="2">
+        <v>14.489649461772011</v>
+      </c>
+      <c r="D2" s="2">
         <v>52496</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F2" s="2" t="s">
         <v>251</v>
       </c>
-      <c r="G2">
+      <c r="G2" s="2">
         <v>2187.333333333333</v>
       </c>
     </row>
-    <row r="3" spans="1:7">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>8</v>
       </c>
@@ -1547,7 +1677,7 @@
         <v>3623</v>
       </c>
       <c r="C3">
-        <v>5.440518906983163</v>
+        <v>5.4405189069831632</v>
       </c>
       <c r="D3">
         <v>19711</v>
@@ -1559,2766 +1689,2896 @@
         <v>252</v>
       </c>
       <c r="G3">
-        <v>821.2916666666666</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" t="s">
+        <v>821.29166666666663</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="B4">
-        <v>3623</v>
-      </c>
-      <c r="C4">
-        <v>0.8029257521391112</v>
-      </c>
-      <c r="D4">
+      <c r="B5" s="3">
+        <v>3623</v>
+      </c>
+      <c r="C5" s="3">
+        <v>0.80292575213911122</v>
+      </c>
+      <c r="D5" s="3">
         <v>2909</v>
       </c>
-      <c r="E4" t="s">
+      <c r="E5" s="3" t="s">
         <v>131</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F5" s="3" t="s">
         <v>253</v>
       </c>
-      <c r="G4">
+      <c r="G5" s="3">
         <v>121.2083333333333</v>
       </c>
     </row>
-    <row r="5" spans="1:7">
-      <c r="A5" t="s">
+    <row r="6" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="B5">
-        <v>3623</v>
-      </c>
-      <c r="C5">
-        <v>1.670438862820867</v>
-      </c>
-      <c r="D5">
+      <c r="B6" s="3">
+        <v>3623</v>
+      </c>
+      <c r="C6" s="3">
+        <v>1.6704388628208671</v>
+      </c>
+      <c r="D6" s="3">
         <v>6052</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E6" s="3" t="s">
         <v>132</v>
       </c>
-      <c r="F5" t="s">
+      <c r="F6" s="3" t="s">
         <v>254</v>
       </c>
-      <c r="G5">
-        <v>252.1666666666667</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6" t="s">
+      <c r="G6" s="3">
+        <v>252.16666666666671</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B6">
-        <v>3623</v>
-      </c>
-      <c r="C6">
+      <c r="B7" s="3">
+        <v>3623</v>
+      </c>
+      <c r="C7" s="3">
         <v>2.967154292023185</v>
       </c>
-      <c r="D6">
+      <c r="D7" s="3">
         <v>10750</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E7" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="F6" t="s">
+      <c r="F7" s="3" t="s">
         <v>255</v>
       </c>
-      <c r="G6">
-        <v>447.9166666666667</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7" t="s">
+      <c r="G7" s="3">
+        <v>447.91666666666669</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B7">
-        <v>3623</v>
-      </c>
-      <c r="C7">
-        <v>8.606127518630968</v>
-      </c>
-      <c r="D7">
+      <c r="B8" s="3">
+        <v>3623</v>
+      </c>
+      <c r="C8" s="3">
+        <v>8.6061275186309683</v>
+      </c>
+      <c r="D8" s="3">
         <v>31180</v>
       </c>
-      <c r="E7" t="s">
+      <c r="E8" s="3" t="s">
         <v>134</v>
       </c>
-      <c r="F7" t="s">
+      <c r="F8" s="3" t="s">
         <v>256</v>
       </c>
-      <c r="G7">
+      <c r="G8" s="3">
         <v>1299.166666666667</v>
       </c>
     </row>
-    <row r="8" spans="1:7">
-      <c r="A8" t="s">
+    <row r="9" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="B8">
-        <v>3623</v>
-      </c>
-      <c r="C8">
-        <v>0.4430030361578802</v>
-      </c>
-      <c r="D8">
+      <c r="B9" s="3">
+        <v>3623</v>
+      </c>
+      <c r="C9" s="3">
+        <v>0.44300303615788023</v>
+      </c>
+      <c r="D9" s="3">
         <v>1605</v>
       </c>
-      <c r="E8" t="s">
+      <c r="E9" s="3" t="s">
         <v>135</v>
       </c>
-      <c r="F8" t="s">
+      <c r="F9" s="3" t="s">
         <v>257</v>
       </c>
-      <c r="G8">
+      <c r="G9" s="3">
         <v>66.875</v>
       </c>
     </row>
-    <row r="9" spans="1:7">
-      <c r="A9" t="s">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D10">
+        <f>SUM(D5:D9)</f>
+        <v>52496</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B9">
-        <v>3623</v>
-      </c>
-      <c r="C9">
-        <v>11.38421197902291</v>
-      </c>
-      <c r="D9">
+      <c r="B12" s="3">
+        <v>3623</v>
+      </c>
+      <c r="C12" s="3">
+        <v>11.384211979022909</v>
+      </c>
+      <c r="D12" s="3">
         <v>41245</v>
       </c>
-      <c r="E9" t="s">
+      <c r="E12" s="3" t="s">
         <v>136</v>
       </c>
-      <c r="F9" t="s">
+      <c r="F12" s="3" t="s">
         <v>258</v>
       </c>
-      <c r="G9">
+      <c r="G12" s="3">
         <v>1718.541666666667</v>
       </c>
     </row>
-    <row r="10" spans="1:7">
-      <c r="A10" t="s">
+    <row r="13" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="B10">
-        <v>3623</v>
-      </c>
-      <c r="C10">
-        <v>2.796853436378692</v>
-      </c>
-      <c r="D10">
+      <c r="B13" s="5">
+        <v>3623</v>
+      </c>
+      <c r="C13" s="5">
+        <v>2.7968534363786919</v>
+      </c>
+      <c r="D13" s="5">
         <v>10133</v>
       </c>
-      <c r="E10" t="s">
+      <c r="E13" s="5" t="s">
         <v>137</v>
       </c>
-      <c r="F10" t="s">
+      <c r="F13" s="5" t="s">
         <v>259</v>
       </c>
-      <c r="G10">
-        <v>422.2083333333333</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="A11" t="s">
+      <c r="G13" s="5">
+        <v>422.20833333333331</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B11">
-        <v>3623</v>
-      </c>
-      <c r="C11">
-        <v>0.3085840463704113</v>
-      </c>
-      <c r="D11">
+      <c r="B14" s="3">
+        <v>3623</v>
+      </c>
+      <c r="C14" s="3">
+        <v>0.30858404637041131</v>
+      </c>
+      <c r="D14" s="3">
         <v>1118</v>
       </c>
-      <c r="E11" t="s">
+      <c r="E14" s="3" t="s">
         <v>138</v>
       </c>
-      <c r="F11" t="s">
+      <c r="F14" s="3" t="s">
         <v>260</v>
       </c>
-      <c r="G11">
-        <v>46.58333333333334</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="A12" t="s">
+      <c r="G14" s="3">
+        <v>46.583333333333343</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D15">
+        <f>SUM(D12:D14)</f>
+        <v>52496</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B12">
-        <v>3623</v>
-      </c>
-      <c r="C12">
-        <v>5.700800441622964</v>
-      </c>
-      <c r="D12">
+      <c r="B17" s="3">
+        <v>3623</v>
+      </c>
+      <c r="C17" s="3">
+        <v>5.7008004416229641</v>
+      </c>
+      <c r="D17" s="3">
         <v>20654</v>
       </c>
-      <c r="E12" t="s">
+      <c r="E17" s="3" t="s">
         <v>139</v>
       </c>
-      <c r="F12" t="s">
+      <c r="F17" s="3" t="s">
         <v>261</v>
       </c>
-      <c r="G12">
-        <v>860.5833333333334</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
-      <c r="A13" t="s">
+      <c r="G17" s="3">
+        <v>860.58333333333337</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="B13">
-        <v>3623</v>
-      </c>
-      <c r="C13">
+      <c r="B18" s="3">
+        <v>3623</v>
+      </c>
+      <c r="C18" s="3">
         <v>4.467016284846812</v>
       </c>
-      <c r="D13">
+      <c r="D18" s="3">
         <v>16184</v>
       </c>
-      <c r="E13" t="s">
+      <c r="E18" s="3" t="s">
         <v>140</v>
       </c>
-      <c r="F13" t="s">
+      <c r="F18" s="3" t="s">
         <v>262</v>
       </c>
-      <c r="G13">
-        <v>674.3333333333334</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
-      <c r="A14" t="s">
+      <c r="G18" s="3">
+        <v>674.33333333333337</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A19" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="B14">
-        <v>3623</v>
-      </c>
-      <c r="C14">
-        <v>4.321832735302236</v>
-      </c>
-      <c r="D14">
+      <c r="B19" s="5">
+        <v>3623</v>
+      </c>
+      <c r="C19" s="5">
+        <v>4.3218327353022357</v>
+      </c>
+      <c r="D19" s="5">
         <v>15658</v>
       </c>
-      <c r="E14" t="s">
+      <c r="E19" s="5" t="s">
         <v>141</v>
       </c>
-      <c r="F14" t="s">
+      <c r="F19" s="5" t="s">
         <v>263</v>
       </c>
-      <c r="G14">
-        <v>652.4166666666666</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
-      <c r="A15" t="s">
+      <c r="G19" s="5">
+        <v>652.41666666666663</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D20">
+        <f>SUM(D17:D19)</f>
+        <v>52496</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="B15">
-        <v>3623</v>
-      </c>
-      <c r="C15">
-        <v>2.837151531879658</v>
-      </c>
-      <c r="D15">
+      <c r="B22" s="5">
+        <v>3623</v>
+      </c>
+      <c r="C22" s="5">
+        <v>2.8371515318796581</v>
+      </c>
+      <c r="D22" s="5">
         <v>10279</v>
       </c>
-      <c r="E15" t="s">
+      <c r="E22" s="5" t="s">
         <v>142</v>
       </c>
-      <c r="F15" t="s">
+      <c r="F22" s="5" t="s">
         <v>264</v>
       </c>
-      <c r="G15">
-        <v>428.2916666666667</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
-      <c r="A16" t="s">
+      <c r="G22" s="5">
+        <v>428.29166666666669</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="B16">
-        <v>3623</v>
-      </c>
-      <c r="C16">
-        <v>2.690311896218603</v>
-      </c>
-      <c r="D16">
+      <c r="B23" s="5">
+        <v>3623</v>
+      </c>
+      <c r="C23" s="5">
+        <v>2.6903118962186028</v>
+      </c>
+      <c r="D23" s="5">
         <v>9747</v>
       </c>
-      <c r="E16" t="s">
+      <c r="E23" s="5" t="s">
         <v>143</v>
       </c>
-      <c r="F16" t="s">
+      <c r="F23" s="5" t="s">
         <v>265</v>
       </c>
-      <c r="G16">
+      <c r="G23" s="5">
         <v>406.125</v>
       </c>
     </row>
-    <row r="17" spans="1:7">
-      <c r="A17" t="s">
+    <row r="24" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="B17">
-        <v>3623</v>
-      </c>
-      <c r="C17">
+      <c r="B24" s="5">
+        <v>3623</v>
+      </c>
+      <c r="C24" s="5">
         <v>3.629312724261661</v>
       </c>
-      <c r="D17">
+      <c r="D24" s="5">
         <v>13149</v>
       </c>
-      <c r="E17" t="s">
+      <c r="E24" s="5" t="s">
         <v>144</v>
       </c>
-      <c r="F17" t="s">
+      <c r="F24" s="5" t="s">
         <v>266</v>
       </c>
-      <c r="G17">
+      <c r="G24" s="5">
         <v>547.875</v>
       </c>
     </row>
-    <row r="18" spans="1:7">
-      <c r="A18" t="s">
+    <row r="25" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="B18">
-        <v>3623</v>
-      </c>
-      <c r="C18">
-        <v>1.922439966878278</v>
-      </c>
-      <c r="D18">
+      <c r="B25" s="5">
+        <v>3623</v>
+      </c>
+      <c r="C25" s="5">
+        <v>1.9224399668782779</v>
+      </c>
+      <c r="D25" s="5">
         <v>6965</v>
       </c>
-      <c r="E18" t="s">
+      <c r="E25" s="5" t="s">
         <v>145</v>
       </c>
-      <c r="F18" t="s">
+      <c r="F25" s="5" t="s">
         <v>267</v>
       </c>
-      <c r="G18">
-        <v>290.2083333333333</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7">
-      <c r="A19" t="s">
+      <c r="G25" s="5">
+        <v>290.20833333333331</v>
+      </c>
+      <c r="J25" s="5" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="B19">
-        <v>3623</v>
-      </c>
-      <c r="C19">
-        <v>1.196522219155396</v>
-      </c>
-      <c r="D19">
+      <c r="B26" s="5">
+        <v>3623</v>
+      </c>
+      <c r="C26" s="5">
+        <v>1.1965222191553959</v>
+      </c>
+      <c r="D26" s="5">
         <v>4335</v>
       </c>
-      <c r="E19" t="s">
+      <c r="E26" s="5" t="s">
         <v>146</v>
       </c>
-      <c r="F19" t="s">
+      <c r="F26" s="5" t="s">
         <v>268</v>
       </c>
-      <c r="G19">
+      <c r="G26" s="5">
         <v>180.625</v>
       </c>
     </row>
-    <row r="20" spans="1:7">
-      <c r="A20" t="s">
+    <row r="27" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="B20">
-        <v>3623</v>
-      </c>
-      <c r="C20">
-        <v>0.5895666574661882</v>
-      </c>
-      <c r="D20">
+      <c r="B27" s="5">
+        <v>3623</v>
+      </c>
+      <c r="C27" s="5">
+        <v>0.58956665746618819</v>
+      </c>
+      <c r="D27" s="5">
         <v>2136</v>
       </c>
-      <c r="E20" t="s">
+      <c r="E27" s="5" t="s">
         <v>147</v>
       </c>
-      <c r="F20" t="s">
+      <c r="F27" s="5" t="s">
         <v>269</v>
       </c>
-      <c r="G20">
+      <c r="G27" s="5">
         <v>89</v>
       </c>
     </row>
-    <row r="21" spans="1:7">
-      <c r="A21" t="s">
+    <row r="28" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="B21">
-        <v>3623</v>
-      </c>
-      <c r="C21">
-        <v>0.3232128070659674</v>
-      </c>
-      <c r="D21">
+      <c r="B28" s="3">
+        <v>3623</v>
+      </c>
+      <c r="C28" s="3">
+        <v>0.32321280706596739</v>
+      </c>
+      <c r="D28" s="3">
         <v>1171</v>
       </c>
-      <c r="E21" t="s">
+      <c r="E28" s="3" t="s">
         <v>148</v>
       </c>
-      <c r="F21" t="s">
+      <c r="F28" s="3" t="s">
         <v>270</v>
       </c>
-      <c r="G21">
-        <v>48.79166666666666</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7">
-      <c r="A22" t="s">
+      <c r="G28" s="3">
+        <v>48.791666666666657</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="B22">
-        <v>3623</v>
-      </c>
-      <c r="C22">
-        <v>0.4833011316588463</v>
-      </c>
-      <c r="D22">
+      <c r="B29" s="3">
+        <v>3623</v>
+      </c>
+      <c r="C29" s="3">
+        <v>0.48330113165884631</v>
+      </c>
+      <c r="D29" s="3">
         <v>1751</v>
       </c>
-      <c r="E22" t="s">
+      <c r="E29" s="3" t="s">
         <v>149</v>
       </c>
-      <c r="F22" t="s">
+      <c r="F29" s="3" t="s">
         <v>271</v>
       </c>
-      <c r="G22">
-        <v>72.95833333333333</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7">
-      <c r="A23" t="s">
+      <c r="G29" s="3">
+        <v>72.958333333333329</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="3" t="s">
         <v>28</v>
       </c>
-      <c r="B23">
-        <v>3623</v>
-      </c>
-      <c r="C23">
-        <v>0.4692243996687828</v>
-      </c>
-      <c r="D23">
+      <c r="B30" s="3">
+        <v>3623</v>
+      </c>
+      <c r="C30" s="3">
+        <v>0.46922439966878282</v>
+      </c>
+      <c r="D30" s="3">
         <v>1700</v>
       </c>
-      <c r="E23" t="s">
+      <c r="E30" s="3" t="s">
         <v>150</v>
       </c>
-      <c r="F23" t="s">
+      <c r="F30" s="3" t="s">
         <v>272</v>
       </c>
-      <c r="G23">
-        <v>70.83333333333333</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7">
-      <c r="A24" t="s">
+      <c r="G30" s="3">
+        <v>70.833333333333329</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="B24">
-        <v>3623</v>
-      </c>
-      <c r="C24">
-        <v>0.348606127518631</v>
-      </c>
-      <c r="D24">
+      <c r="B31" s="3">
+        <v>3623</v>
+      </c>
+      <c r="C31" s="3">
+        <v>0.34860612751863101</v>
+      </c>
+      <c r="D31" s="3">
         <v>1263</v>
       </c>
-      <c r="E24" t="s">
+      <c r="E31" s="3" t="s">
         <v>151</v>
       </c>
-      <c r="F24" t="s">
+      <c r="F31" s="3" t="s">
         <v>273</v>
       </c>
-      <c r="G24">
+      <c r="G31" s="3">
         <v>52.625</v>
       </c>
     </row>
-    <row r="25" spans="1:7">
-      <c r="A25" t="s">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D32">
+        <f>SUM(D22:D31)</f>
+        <v>52496</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="B25">
-        <v>3623</v>
-      </c>
-      <c r="C25">
-        <v>6.110681755451283</v>
-      </c>
-      <c r="D25">
+      <c r="B34" s="3">
+        <v>3623</v>
+      </c>
+      <c r="C34" s="3">
+        <v>6.1106817554512833</v>
+      </c>
+      <c r="D34" s="3">
         <v>22139</v>
       </c>
-      <c r="E25" t="s">
+      <c r="E34" s="3" t="s">
         <v>152</v>
       </c>
-      <c r="F25" t="s">
+      <c r="F34" s="3" t="s">
         <v>274</v>
       </c>
-      <c r="G25">
-        <v>922.4583333333334</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7">
-      <c r="A26" t="s">
+      <c r="G34" s="3">
+        <v>922.45833333333337</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A35" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="B26">
-        <v>3623</v>
-      </c>
-      <c r="C26">
-        <v>3.097433066519459</v>
-      </c>
-      <c r="D26">
+      <c r="B35" s="3">
+        <v>3623</v>
+      </c>
+      <c r="C35" s="3">
+        <v>3.0974330665194589</v>
+      </c>
+      <c r="D35" s="3">
         <v>11222</v>
       </c>
-      <c r="E26" t="s">
+      <c r="E35" s="3" t="s">
         <v>153</v>
       </c>
-      <c r="F26" t="s">
+      <c r="F35" s="3" t="s">
         <v>275</v>
       </c>
-      <c r="G26">
-        <v>467.5833333333333</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7">
-      <c r="A27" t="s">
+      <c r="G35" s="3">
+        <v>467.58333333333331</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="B27">
-        <v>3623</v>
-      </c>
-      <c r="C27">
-        <v>4.782776704388628</v>
-      </c>
-      <c r="D27">
+      <c r="B36" s="3">
+        <v>3623</v>
+      </c>
+      <c r="C36" s="3">
+        <v>4.7827767043886276</v>
+      </c>
+      <c r="D36" s="3">
         <v>17328</v>
       </c>
-      <c r="E27" t="s">
+      <c r="E36" s="3" t="s">
         <v>154</v>
       </c>
-      <c r="F27" t="s">
+      <c r="F36" s="3" t="s">
         <v>276</v>
       </c>
-      <c r="G27">
+      <c r="G36" s="3">
         <v>722</v>
       </c>
     </row>
-    <row r="28" spans="1:7">
-      <c r="A28" t="s">
+    <row r="37" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="B28">
-        <v>3623</v>
-      </c>
-      <c r="C28">
-        <v>0.3201766491857577</v>
-      </c>
-      <c r="D28">
+      <c r="B37" s="3">
+        <v>3623</v>
+      </c>
+      <c r="C37" s="3">
+        <v>0.32017664918575772</v>
+      </c>
+      <c r="D37" s="3">
         <v>1160</v>
       </c>
-      <c r="E28" t="s">
+      <c r="E37" s="3" t="s">
         <v>155</v>
       </c>
-      <c r="F28" t="s">
+      <c r="F37" s="3" t="s">
         <v>277</v>
       </c>
-      <c r="G28">
-        <v>48.33333333333334</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7">
-      <c r="A29" t="s">
+      <c r="G37" s="3">
+        <v>48.333333333333343</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="B29">
-        <v>3623</v>
-      </c>
-      <c r="C29">
+      <c r="B38" s="3">
+        <v>3623</v>
+      </c>
+      <c r="C38" s="3">
         <v>0.1785812862268838</v>
       </c>
-      <c r="D29">
+      <c r="D38" s="3">
         <v>647</v>
       </c>
-      <c r="E29" t="s">
+      <c r="E38" s="3" t="s">
         <v>156</v>
       </c>
-      <c r="F29" t="s">
+      <c r="F38" s="3" t="s">
         <v>278</v>
       </c>
-      <c r="G29">
-        <v>26.95833333333333</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7">
-      <c r="A30" t="s">
+      <c r="G38" s="3">
+        <v>26.958333333333329</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D39">
+        <f>SUM(D34:D38)</f>
+        <v>52496</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="B30">
-        <v>3623</v>
-      </c>
-      <c r="C30">
-        <v>89.4234060171129</v>
-      </c>
-      <c r="D30">
+      <c r="B41" s="2">
+        <v>3623</v>
+      </c>
+      <c r="C41" s="2">
+        <v>89.423406017112896</v>
+      </c>
+      <c r="D41" s="2">
         <v>323981</v>
       </c>
-      <c r="E30" t="s">
+      <c r="E41" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="F30" t="s">
+      <c r="F41" s="2" t="s">
         <v>279</v>
       </c>
-      <c r="G30">
+      <c r="G41" s="2">
         <v>13499.20833333333</v>
       </c>
     </row>
-    <row r="31" spans="1:7">
-      <c r="A31" t="s">
+    <row r="43" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A43" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="B31">
-        <v>3623</v>
-      </c>
-      <c r="C31">
-        <v>89.17361302787745</v>
-      </c>
-      <c r="D31">
+      <c r="B43" s="3">
+        <v>3623</v>
+      </c>
+      <c r="C43" s="3">
+        <v>89.173613027877451</v>
+      </c>
+      <c r="D43" s="3">
         <v>323076</v>
       </c>
-      <c r="E31" t="s">
+      <c r="E43" s="3" t="s">
         <v>158</v>
       </c>
-      <c r="F31" t="s">
+      <c r="F43" s="3" t="s">
         <v>280</v>
       </c>
-      <c r="G31">
+      <c r="G43" s="3">
         <v>13461.5</v>
       </c>
     </row>
-    <row r="32" spans="1:7">
-      <c r="A32" t="s">
+    <row r="45" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A45" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="B32">
-        <v>3623</v>
-      </c>
-      <c r="C32">
-        <v>89.11537399944797</v>
-      </c>
-      <c r="D32">
+      <c r="B45" s="4">
+        <v>3623</v>
+      </c>
+      <c r="C45" s="4">
+        <v>89.115373999447968</v>
+      </c>
+      <c r="D45" s="4">
         <v>322865</v>
       </c>
-      <c r="E32" t="s">
+      <c r="E45" s="4" t="s">
         <v>159</v>
       </c>
-      <c r="F32" t="s">
+      <c r="F45" s="4" t="s">
         <v>281</v>
       </c>
-      <c r="G32">
+      <c r="G45" s="4">
         <v>13452.70833333333</v>
       </c>
     </row>
-    <row r="33" spans="1:7">
-      <c r="A33" t="s">
+    <row r="46" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="B33">
-        <v>3623</v>
-      </c>
-      <c r="C33">
-        <v>0.05823902842947833</v>
-      </c>
-      <c r="D33">
+      <c r="B46" s="4">
+        <v>3623</v>
+      </c>
+      <c r="C46" s="4">
+        <v>5.8239028429478333E-2</v>
+      </c>
+      <c r="D46" s="4">
         <v>211</v>
       </c>
-      <c r="E33" t="s">
+      <c r="E46" s="4" t="s">
         <v>160</v>
       </c>
-      <c r="F33" t="s">
+      <c r="F46" s="4" t="s">
         <v>282</v>
       </c>
-      <c r="G33">
-        <v>8.791666666666666</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7">
-      <c r="A34" t="s">
+      <c r="G46" s="4">
+        <v>8.7916666666666661</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D47">
+        <f>SUM(D45:D46)</f>
+        <v>323076</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A48" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="B34">
-        <v>3623</v>
-      </c>
-      <c r="C34">
-        <v>0.2497929892354402</v>
-      </c>
-      <c r="D34">
+      <c r="B48" s="3">
+        <v>3623</v>
+      </c>
+      <c r="C48" s="3">
+        <v>0.24979298923544019</v>
+      </c>
+      <c r="D48" s="3">
         <v>905</v>
       </c>
-      <c r="E34" t="s">
+      <c r="E48" s="3" t="s">
         <v>161</v>
       </c>
-      <c r="F34" t="s">
+      <c r="F48" s="3" t="s">
         <v>283</v>
       </c>
-      <c r="G34">
-        <v>37.70833333333334</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7">
-      <c r="A35" t="s">
+      <c r="G48" s="3">
+        <v>37.708333333333343</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A51" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="B35">
-        <v>3623</v>
-      </c>
-      <c r="C35">
-        <v>65.4835771460116</v>
-      </c>
-      <c r="D35">
+      <c r="B51" s="2">
+        <v>3623</v>
+      </c>
+      <c r="C51" s="2">
+        <v>65.483577146011598</v>
+      </c>
+      <c r="D51" s="2">
         <v>237247</v>
       </c>
-      <c r="E35" t="s">
+      <c r="E51" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="F35" t="s">
+      <c r="F51" s="2" t="s">
         <v>284</v>
       </c>
-      <c r="G35">
-        <v>9885.291666666666</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7">
-      <c r="A36" t="s">
+      <c r="G51" s="2">
+        <v>9885.2916666666661</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
         <v>41</v>
       </c>
-      <c r="B36">
-        <v>3623</v>
-      </c>
-      <c r="C36">
-        <v>65.54181617444107</v>
-      </c>
-      <c r="D36">
+      <c r="B53">
+        <v>3623</v>
+      </c>
+      <c r="C53">
+        <v>65.541816174441067</v>
+      </c>
+      <c r="D53">
         <v>237458</v>
       </c>
-      <c r="E36" t="s">
+      <c r="E53" t="s">
         <v>163</v>
       </c>
-      <c r="F36" t="s">
+      <c r="F53" t="s">
         <v>285</v>
       </c>
-      <c r="G36">
-        <v>9894.083333333334</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7">
-      <c r="A37" t="s">
+      <c r="G53">
+        <v>9894.0833333333339</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
         <v>42</v>
       </c>
-      <c r="B37">
-        <v>3623</v>
-      </c>
-      <c r="C37">
-        <v>13.85840463704113</v>
-      </c>
-      <c r="D37">
+      <c r="B54">
+        <v>3623</v>
+      </c>
+      <c r="C54">
+        <v>13.858404637041129</v>
+      </c>
+      <c r="D54">
         <v>50209</v>
       </c>
-      <c r="E37" t="s">
+      <c r="E54" t="s">
         <v>164</v>
       </c>
-      <c r="F37" t="s">
+      <c r="F54" t="s">
         <v>286</v>
       </c>
-      <c r="G37">
+      <c r="G54">
         <v>2092.041666666667</v>
       </c>
     </row>
-    <row r="38" spans="1:7">
-      <c r="A38" t="s">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
         <v>43</v>
       </c>
-      <c r="B38">
-        <v>3623</v>
-      </c>
-      <c r="C38">
-        <v>65.41926580182169</v>
-      </c>
-      <c r="D38">
+      <c r="B55">
+        <v>3623</v>
+      </c>
+      <c r="C55">
+        <v>65.419265801821695</v>
+      </c>
+      <c r="D55">
         <v>237014</v>
       </c>
-      <c r="E38" t="s">
+      <c r="E55" t="s">
         <v>165</v>
       </c>
-      <c r="F38" t="s">
+      <c r="F55" t="s">
         <v>287</v>
       </c>
-      <c r="G38">
-        <v>9875.583333333334</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7">
-      <c r="A39" t="s">
+      <c r="G55">
+        <v>9875.5833333333339</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
         <v>44</v>
       </c>
-      <c r="B39">
-        <v>3623</v>
-      </c>
-      <c r="C39">
-        <v>65.37951973502622</v>
-      </c>
-      <c r="D39">
+      <c r="B56">
+        <v>3623</v>
+      </c>
+      <c r="C56">
+        <v>65.379519735026221</v>
+      </c>
+      <c r="D56">
         <v>236870</v>
       </c>
-      <c r="E39" t="s">
+      <c r="E56" t="s">
         <v>166</v>
       </c>
-      <c r="F39" t="s">
+      <c r="F56" t="s">
         <v>285</v>
       </c>
-      <c r="G39">
-        <v>9869.583333333334</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7">
-      <c r="A40" t="s">
+      <c r="G56">
+        <v>9869.5833333333339</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
         <v>45</v>
       </c>
-      <c r="B40">
-        <v>3623</v>
-      </c>
-      <c r="C40">
-        <v>65.44852332321281</v>
-      </c>
-      <c r="D40">
+      <c r="B57">
+        <v>3623</v>
+      </c>
+      <c r="C57">
+        <v>65.448523323212811</v>
+      </c>
+      <c r="D57">
         <v>237120</v>
       </c>
-      <c r="E40" t="s">
+      <c r="E57" t="s">
         <v>167</v>
       </c>
-      <c r="F40" t="s">
+      <c r="F57" t="s">
         <v>288</v>
       </c>
-      <c r="G40">
+      <c r="G57">
         <v>9880</v>
       </c>
     </row>
-    <row r="41" spans="1:7">
-      <c r="A41" t="s">
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
         <v>46</v>
       </c>
-      <c r="B41">
-        <v>3623</v>
-      </c>
-      <c r="C41">
-        <v>64.85178029257521</v>
-      </c>
-      <c r="D41">
+      <c r="B58">
+        <v>3623</v>
+      </c>
+      <c r="C58">
+        <v>64.851780292575214</v>
+      </c>
+      <c r="D58">
         <v>234958</v>
       </c>
-      <c r="E41" t="s">
+      <c r="E58" t="s">
         <v>168</v>
       </c>
-      <c r="F41" t="s">
+      <c r="F58" t="s">
         <v>289</v>
       </c>
-      <c r="G41">
-        <v>9789.916666666666</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7">
-      <c r="A42" t="s">
+      <c r="G58">
+        <v>9789.9166666666661</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A61" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="B42">
-        <v>3623</v>
-      </c>
-      <c r="C42">
+      <c r="B61" s="3">
+        <v>3623</v>
+      </c>
+      <c r="C61" s="3">
         <v>11.03974606679547</v>
       </c>
-      <c r="D42">
+      <c r="D61" s="3">
         <v>39997</v>
       </c>
-      <c r="E42" t="s">
+      <c r="E61" s="3" t="s">
         <v>169</v>
       </c>
-      <c r="F42" t="s">
+      <c r="F61" s="3" t="s">
         <v>290</v>
       </c>
-      <c r="G42">
+      <c r="G61" s="3">
         <v>1666.541666666667</v>
       </c>
     </row>
-    <row r="43" spans="1:7">
-      <c r="A43" t="s">
+    <row r="62" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A62" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="B43">
-        <v>3623</v>
-      </c>
-      <c r="C43">
+      <c r="B62" s="3">
+        <v>3623</v>
+      </c>
+      <c r="C62" s="3">
         <v>32.11620204250621</v>
       </c>
-      <c r="D43">
+      <c r="D62" s="3">
         <v>116357</v>
       </c>
-      <c r="E43" t="s">
+      <c r="E62" s="3" t="s">
         <v>170</v>
       </c>
-      <c r="F43" t="s">
+      <c r="F62" s="3" t="s">
         <v>291</v>
       </c>
-      <c r="G43">
+      <c r="G62" s="3">
         <v>4848.208333333333</v>
       </c>
     </row>
-    <row r="44" spans="1:7">
-      <c r="A44" t="s">
+    <row r="63" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A63" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="B44">
-        <v>3623</v>
-      </c>
-      <c r="C44">
-        <v>19.99779188517803</v>
-      </c>
-      <c r="D44">
+      <c r="B63" s="3">
+        <v>3623</v>
+      </c>
+      <c r="C63" s="3">
+        <v>19.997791885178032</v>
+      </c>
+      <c r="D63" s="3">
         <v>72452</v>
       </c>
-      <c r="E44" t="s">
+      <c r="E63" s="3" t="s">
         <v>171</v>
       </c>
-      <c r="F44" t="s">
+      <c r="F63" s="3" t="s">
         <v>292</v>
       </c>
-      <c r="G44">
+      <c r="G63" s="3">
         <v>3018.833333333333</v>
       </c>
     </row>
-    <row r="45" spans="1:7">
-      <c r="A45" t="s">
+    <row r="64" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A64" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="B45">
-        <v>3623</v>
-      </c>
-      <c r="C45">
-        <v>2.32983715153188</v>
-      </c>
-      <c r="D45">
+      <c r="B64" s="3">
+        <v>3623</v>
+      </c>
+      <c r="C64" s="3">
+        <v>2.3298371515318799</v>
+      </c>
+      <c r="D64" s="3">
         <v>8441</v>
       </c>
-      <c r="E45" t="s">
+      <c r="E64" s="3" t="s">
         <v>172</v>
       </c>
-      <c r="F45" t="s">
+      <c r="F64" s="3" t="s">
         <v>293</v>
       </c>
-      <c r="G45">
-        <v>351.7083333333333</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7">
-      <c r="A46" t="s">
+      <c r="G64" s="3">
+        <v>351.70833333333331</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D65">
+        <f>SUM(D61:D64)</f>
+        <v>237247</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A67" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="B46">
-        <v>3623</v>
-      </c>
-      <c r="C46">
-        <v>2.996687827767044</v>
-      </c>
-      <c r="D46">
+      <c r="B67" s="3">
+        <v>3623</v>
+      </c>
+      <c r="C67" s="3">
+        <v>2.9966878277670439</v>
+      </c>
+      <c r="D67" s="3">
         <v>10857</v>
       </c>
-      <c r="E46" t="s">
+      <c r="E67" s="3" t="s">
         <v>173</v>
       </c>
-      <c r="F46" t="s">
+      <c r="F67" s="3" t="s">
         <v>294</v>
       </c>
-      <c r="G46">
+      <c r="G67" s="3">
         <v>452.375</v>
       </c>
     </row>
-    <row r="47" spans="1:7">
-      <c r="A47" t="s">
+    <row r="68" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A68" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="B47">
-        <v>3623</v>
-      </c>
-      <c r="C47">
+      <c r="B68" s="3">
+        <v>3623</v>
+      </c>
+      <c r="C68" s="3">
         <v>30.80899806789953</v>
       </c>
-      <c r="D47">
+      <c r="D68" s="3">
         <v>111621</v>
       </c>
-      <c r="E47" t="s">
+      <c r="E68" s="3" t="s">
         <v>174</v>
       </c>
-      <c r="F47" t="s">
+      <c r="F68" s="3" t="s">
         <v>295</v>
       </c>
-      <c r="G47">
+      <c r="G68" s="3">
         <v>4650.875</v>
       </c>
     </row>
-    <row r="48" spans="1:7">
-      <c r="A48" t="s">
+    <row r="69" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D69" s="3">
+        <f>SUM(D67:D68)</f>
+        <v>122478</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A71" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="B48">
-        <v>3623</v>
-      </c>
-      <c r="C48">
-        <v>10.4187137731162</v>
-      </c>
-      <c r="D48">
+      <c r="B71" s="3">
+        <v>3623</v>
+      </c>
+      <c r="C71" s="3">
+        <v>10.418713773116201</v>
+      </c>
+      <c r="D71" s="3">
         <v>37747</v>
       </c>
-      <c r="E48" t="s">
+      <c r="E71" s="3" t="s">
         <v>175</v>
       </c>
-      <c r="F48" t="s">
+      <c r="F71" s="3" t="s">
         <v>296</v>
       </c>
-      <c r="G48">
+      <c r="G71" s="3">
         <v>1572.791666666667</v>
       </c>
     </row>
-    <row r="49" spans="1:7">
-      <c r="A49" t="s">
+    <row r="72" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A72" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="B49">
-        <v>3623</v>
-      </c>
-      <c r="C49">
-        <v>4.319072591774773</v>
-      </c>
-      <c r="D49">
+      <c r="B72" s="3">
+        <v>3623</v>
+      </c>
+      <c r="C72" s="3">
+        <v>4.3190725917747734</v>
+      </c>
+      <c r="D72" s="3">
         <v>15648</v>
       </c>
-      <c r="E49" t="s">
+      <c r="E72" s="3" t="s">
         <v>176</v>
       </c>
-      <c r="F49" t="s">
+      <c r="F72" s="3" t="s">
         <v>297</v>
       </c>
-      <c r="G49">
+      <c r="G72" s="3">
         <v>652</v>
       </c>
     </row>
-    <row r="50" spans="1:7">
-      <c r="A50" t="s">
+    <row r="73" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A73" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="B50">
-        <v>3623</v>
-      </c>
-      <c r="C50">
+      <c r="B73" s="3">
+        <v>3623</v>
+      </c>
+      <c r="C73" s="3">
         <v>1.076455975710737</v>
       </c>
-      <c r="D50">
+      <c r="D73" s="3">
         <v>3900</v>
       </c>
-      <c r="E50" t="s">
+      <c r="E73" s="3" t="s">
         <v>177</v>
       </c>
-      <c r="F50" t="s">
+      <c r="F73" s="3" t="s">
         <v>298</v>
       </c>
-      <c r="G50">
+      <c r="G73" s="3">
         <v>162.5</v>
       </c>
     </row>
-    <row r="51" spans="1:7">
-      <c r="A51" t="s">
+    <row r="74" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D74" s="3">
+        <f>SUM(D71:D73)</f>
+        <v>57295</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A76" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="B51">
-        <v>3623</v>
-      </c>
-      <c r="C51">
-        <v>33.89925476124758</v>
-      </c>
-      <c r="D51">
+      <c r="B76" s="3">
+        <v>3623</v>
+      </c>
+      <c r="C76" s="3">
+        <v>33.899254761247583</v>
+      </c>
+      <c r="D76" s="3">
         <v>122817</v>
       </c>
-      <c r="E51" t="s">
+      <c r="E76" s="3" t="s">
         <v>178</v>
       </c>
-      <c r="F51" t="s">
+      <c r="F76" s="3" t="s">
         <v>299</v>
       </c>
-      <c r="G51">
+      <c r="G76" s="3">
         <v>5117.375</v>
       </c>
     </row>
-    <row r="52" spans="1:7">
-      <c r="A52" t="s">
+    <row r="77" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A77" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="B52">
-        <v>3623</v>
-      </c>
-      <c r="C52">
-        <v>27.66795473364615</v>
-      </c>
-      <c r="D52">
+      <c r="B77" s="3">
+        <v>3623</v>
+      </c>
+      <c r="C77" s="3">
+        <v>27.667954733646152</v>
+      </c>
+      <c r="D77" s="3">
         <v>100241</v>
       </c>
-      <c r="E52" t="s">
+      <c r="E77" s="3" t="s">
         <v>179</v>
       </c>
-      <c r="F52" t="s">
+      <c r="F77" s="3" t="s">
         <v>300</v>
       </c>
-      <c r="G52">
+      <c r="G77" s="3">
         <v>4176.708333333333</v>
       </c>
     </row>
-    <row r="53" spans="1:7">
-      <c r="A53" t="s">
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D78">
+        <f>SUM(D76:D77)</f>
+        <v>223058</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A80" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="B53">
-        <v>3623</v>
-      </c>
-      <c r="C53">
-        <v>67.31769252001104</v>
-      </c>
-      <c r="D53">
+      <c r="B80" s="2">
+        <v>3623</v>
+      </c>
+      <c r="C80" s="2">
+        <v>67.317692520011036</v>
+      </c>
+      <c r="D80" s="2">
         <v>243892</v>
       </c>
-      <c r="E53" t="s">
+      <c r="E80" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="F53" t="s">
+      <c r="F80" s="2" t="s">
         <v>301</v>
       </c>
-      <c r="G53">
+      <c r="G80" s="2">
         <v>10162.16666666667</v>
       </c>
     </row>
-    <row r="54" spans="1:7">
-      <c r="A54" t="s">
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
         <v>59</v>
       </c>
-      <c r="B54">
-        <v>3623</v>
-      </c>
-      <c r="C54">
-        <v>0.1046094396908639</v>
-      </c>
-      <c r="D54">
+      <c r="B81">
+        <v>3623</v>
+      </c>
+      <c r="C81">
+        <v>0.10460943969086391</v>
+      </c>
+      <c r="D81">
         <v>379</v>
       </c>
-      <c r="E54" t="s">
+      <c r="E81" t="s">
         <v>181</v>
       </c>
-      <c r="F54" t="s">
+      <c r="F81" t="s">
         <v>302</v>
       </c>
-      <c r="G54">
+      <c r="G81">
         <v>15.79166666666667</v>
       </c>
     </row>
-    <row r="55" spans="1:7">
-      <c r="A55" t="s">
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
         <v>60</v>
       </c>
-      <c r="B55">
-        <v>3623</v>
-      </c>
-      <c r="C55">
-        <v>45.45845983991168</v>
-      </c>
-      <c r="D55">
+      <c r="B84">
+        <v>3623</v>
+      </c>
+      <c r="C84">
+        <v>45.458459839911683</v>
+      </c>
+      <c r="D84">
         <v>164696</v>
       </c>
-      <c r="E55" t="s">
+      <c r="E84" t="s">
         <v>182</v>
       </c>
-      <c r="F55" t="s">
+      <c r="F84" t="s">
         <v>303</v>
       </c>
-      <c r="G55">
+      <c r="G84">
         <v>6862.333333333333</v>
       </c>
     </row>
-    <row r="56" spans="1:7">
-      <c r="A56" t="s">
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
         <v>61</v>
       </c>
-      <c r="B56">
-        <v>3623</v>
-      </c>
-      <c r="C56">
-        <v>18.43499861992824</v>
-      </c>
-      <c r="D56">
+      <c r="B85">
+        <v>3623</v>
+      </c>
+      <c r="C85">
+        <v>18.434998619928241</v>
+      </c>
+      <c r="D85">
         <v>66790</v>
       </c>
-      <c r="E56" t="s">
+      <c r="E85" t="s">
         <v>183</v>
       </c>
-      <c r="F56" t="s">
+      <c r="F85" t="s">
         <v>304</v>
       </c>
-      <c r="G56">
+      <c r="G85">
         <v>2782.916666666667</v>
       </c>
     </row>
-    <row r="57" spans="1:7">
-      <c r="A57" t="s">
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D86">
+        <f>SUM(D84:D85)</f>
+        <v>231486</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
         <v>62</v>
       </c>
-      <c r="B57">
-        <v>3623</v>
-      </c>
-      <c r="C57">
+      <c r="B88">
+        <v>3623</v>
+      </c>
+      <c r="C88">
         <v>25.93430858404637</v>
       </c>
-      <c r="D57">
+      <c r="D88">
         <v>93960</v>
       </c>
-      <c r="E57" t="s">
+      <c r="E88" t="s">
         <v>184</v>
       </c>
-      <c r="F57" t="s">
+      <c r="F88" t="s">
         <v>305</v>
       </c>
-      <c r="G57">
+      <c r="G88">
         <v>3915</v>
       </c>
     </row>
-    <row r="58" spans="1:7">
-      <c r="A58" t="s">
+    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
         <v>63</v>
       </c>
-      <c r="B58">
-        <v>3623</v>
-      </c>
-      <c r="C58">
-        <v>12.77974054650842</v>
-      </c>
-      <c r="D58">
+      <c r="B89">
+        <v>3623</v>
+      </c>
+      <c r="C89">
+        <v>12.779740546508419</v>
+      </c>
+      <c r="D89">
         <v>46301</v>
       </c>
-      <c r="E58" t="s">
+      <c r="E89" t="s">
         <v>185</v>
       </c>
-      <c r="F58" t="s">
+      <c r="F89" t="s">
         <v>306</v>
       </c>
-      <c r="G58">
+      <c r="G89">
         <v>1929.208333333333</v>
       </c>
     </row>
-    <row r="59" spans="1:7">
-      <c r="A59" t="s">
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D90">
+        <f>SUM(D88:D89)</f>
+        <v>140261</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A92" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="B59">
-        <v>3623</v>
-      </c>
-      <c r="C59">
-        <v>59.88849020149048</v>
-      </c>
-      <c r="D59">
+      <c r="B92" s="3">
+        <v>3623</v>
+      </c>
+      <c r="C92" s="3">
+        <v>59.888490201490477</v>
+      </c>
+      <c r="D92" s="3">
         <v>216976</v>
       </c>
-      <c r="E59" t="s">
+      <c r="E92" s="3" t="s">
         <v>186</v>
       </c>
-      <c r="F59" t="s">
+      <c r="F92" s="3" t="s">
         <v>307</v>
       </c>
-      <c r="G59">
-        <v>9040.666666666666</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7">
-      <c r="A60" t="s">
+      <c r="G92" s="3">
+        <v>9040.6666666666661</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A93" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="B60">
-        <v>3623</v>
-      </c>
-      <c r="C60">
-        <v>6.552580734198179</v>
-      </c>
-      <c r="D60">
+      <c r="B93" s="3">
+        <v>3623</v>
+      </c>
+      <c r="C93" s="3">
+        <v>6.5525807341981794</v>
+      </c>
+      <c r="D93" s="3">
         <v>23740</v>
       </c>
-      <c r="E60" t="s">
+      <c r="E93" s="3" t="s">
         <v>187</v>
       </c>
-      <c r="F60" t="s">
+      <c r="F93" s="3" t="s">
         <v>308</v>
       </c>
-      <c r="G60">
-        <v>989.1666666666666</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7">
-      <c r="A61" t="s">
+      <c r="G93" s="3">
+        <v>989.16666666666663</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A94" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="B61">
-        <v>3623</v>
-      </c>
-      <c r="C61">
-        <v>0.8766215843223848</v>
-      </c>
-      <c r="D61">
+      <c r="B94" s="3">
+        <v>3623</v>
+      </c>
+      <c r="C94" s="3">
+        <v>0.87662158432238479</v>
+      </c>
+      <c r="D94" s="3">
         <v>3176</v>
       </c>
-      <c r="E61" t="s">
+      <c r="E94" s="3" t="s">
         <v>188</v>
       </c>
-      <c r="F61" t="s">
+      <c r="F94" s="3" t="s">
         <v>309</v>
       </c>
-      <c r="G61">
-        <v>132.3333333333333</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7">
-      <c r="A62" t="s">
+      <c r="G94" s="3">
+        <v>132.33333333333329</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D95">
+        <f>SUM(D92:D94)</f>
+        <v>243892</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
         <v>67</v>
       </c>
-      <c r="B62">
-        <v>3623</v>
-      </c>
-      <c r="C62">
-        <v>42.64946177201215</v>
-      </c>
-      <c r="D62">
+      <c r="B97">
+        <v>3623</v>
+      </c>
+      <c r="C97">
+        <v>42.649461772012152</v>
+      </c>
+      <c r="D97">
         <v>154519</v>
       </c>
-      <c r="E62" t="s">
+      <c r="E97" t="s">
         <v>189</v>
       </c>
-      <c r="F62" t="s">
+      <c r="F97" t="s">
         <v>310</v>
       </c>
-      <c r="G62">
+      <c r="G97">
         <v>6438.291666666667</v>
       </c>
     </row>
-    <row r="63" spans="1:7">
-      <c r="A63" t="s">
+    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
         <v>68</v>
       </c>
-      <c r="B63">
-        <v>3623</v>
-      </c>
-      <c r="C63">
+      <c r="B100">
+        <v>3623</v>
+      </c>
+      <c r="C100">
         <v>15.47336461495998</v>
       </c>
-      <c r="D63">
+      <c r="D100">
         <v>56060</v>
       </c>
-      <c r="E63" t="s">
+      <c r="E100" t="s">
         <v>190</v>
       </c>
-      <c r="F63" t="s">
+      <c r="F100" t="s">
         <v>311</v>
       </c>
-      <c r="G63">
+      <c r="G100">
         <v>2335.833333333333</v>
       </c>
     </row>
-    <row r="64" spans="1:7">
-      <c r="A64" t="s">
+    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
         <v>69</v>
       </c>
-      <c r="B64">
-        <v>3623</v>
-      </c>
-      <c r="C64">
-        <v>7.889042230195971</v>
-      </c>
-      <c r="D64">
+      <c r="B101">
+        <v>3623</v>
+      </c>
+      <c r="C101">
+        <v>7.8890422301959706</v>
+      </c>
+      <c r="D101">
         <v>28582</v>
       </c>
-      <c r="E64" t="s">
+      <c r="E101" t="s">
         <v>191</v>
       </c>
-      <c r="F64" t="s">
+      <c r="F101" t="s">
         <v>312</v>
       </c>
-      <c r="G64">
+      <c r="G101">
         <v>1190.916666666667</v>
       </c>
     </row>
-    <row r="65" spans="1:7">
-      <c r="A65" t="s">
+    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D102">
+        <f>SUM(D100:D101)</f>
+        <v>84642</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
         <v>70</v>
       </c>
-      <c r="B65">
-        <v>3623</v>
-      </c>
-      <c r="C65">
-        <v>6.337013524703284</v>
-      </c>
-      <c r="D65">
+      <c r="B104">
+        <v>3623</v>
+      </c>
+      <c r="C104">
+        <v>6.3370135247032842</v>
+      </c>
+      <c r="D104">
         <v>22959</v>
       </c>
-      <c r="E65" t="s">
+      <c r="E104" t="s">
         <v>192</v>
       </c>
-      <c r="F65" t="s">
+      <c r="F104" t="s">
         <v>313</v>
       </c>
-      <c r="G65">
+      <c r="G104">
         <v>956.625</v>
       </c>
     </row>
-    <row r="66" spans="1:7">
-      <c r="A66" t="s">
+    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
         <v>71</v>
       </c>
-      <c r="B66">
-        <v>3623</v>
-      </c>
-      <c r="C66">
-        <v>12.64173337013525</v>
-      </c>
-      <c r="D66">
+      <c r="B105">
+        <v>3623</v>
+      </c>
+      <c r="C105">
+        <v>12.641733370135251</v>
+      </c>
+      <c r="D105">
         <v>45801</v>
       </c>
-      <c r="E66" t="s">
+      <c r="E105" t="s">
         <v>193</v>
       </c>
-      <c r="F66" t="s">
+      <c r="F105" t="s">
         <v>314</v>
       </c>
-      <c r="G66">
+      <c r="G105">
         <v>1908.375</v>
       </c>
     </row>
-    <row r="67" spans="1:7">
-      <c r="A67" t="s">
+    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
         <v>72</v>
       </c>
-      <c r="B67">
-        <v>3623</v>
-      </c>
-      <c r="C67">
+      <c r="B106">
+        <v>3623</v>
+      </c>
+      <c r="C106">
         <v>15.75710736958322</v>
       </c>
-      <c r="D67">
+      <c r="D106">
         <v>57088</v>
       </c>
-      <c r="E67" t="s">
+      <c r="E106" t="s">
         <v>194</v>
       </c>
-      <c r="F67" t="s">
+      <c r="F106" t="s">
         <v>315</v>
       </c>
-      <c r="G67">
+      <c r="G106">
         <v>2378.666666666667</v>
       </c>
     </row>
-    <row r="68" spans="1:7">
-      <c r="A68" t="s">
+    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D107">
+        <f>SUM(D104:D106)</f>
+        <v>125848</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" s="2" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A109" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="B68">
-        <v>3623</v>
-      </c>
-      <c r="C68">
+      <c r="B109" s="2">
+        <v>3623</v>
+      </c>
+      <c r="C109" s="2">
         <v>151.0759039470052</v>
       </c>
-      <c r="D68">
+      <c r="D109" s="2">
         <v>547348</v>
       </c>
-      <c r="E68" t="s">
+      <c r="E109" s="2" t="s">
         <v>195</v>
       </c>
-      <c r="F68" t="s">
+      <c r="F109" s="2" t="s">
         <v>316</v>
       </c>
-      <c r="G68">
-        <v>22806.16666666667</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7">
-      <c r="A69" t="s">
+      <c r="G109" s="2">
+        <v>22806.166666666672</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" ht="16.5" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="111" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A111" s="3" t="s">
         <v>74</v>
       </c>
-      <c r="B69">
-        <v>3623</v>
-      </c>
-      <c r="C69">
-        <v>69.24013248688932</v>
-      </c>
-      <c r="D69">
+      <c r="B111" s="3">
+        <v>3623</v>
+      </c>
+      <c r="C111" s="3">
+        <v>69.240132486889323</v>
+      </c>
+      <c r="D111" s="3">
         <v>250857</v>
       </c>
-      <c r="E69" t="s">
+      <c r="E111" s="3" t="s">
         <v>196</v>
       </c>
-      <c r="F69" t="s">
+      <c r="F111" s="3" t="s">
         <v>317</v>
       </c>
-      <c r="G69">
+      <c r="G111" s="3">
         <v>10452.375</v>
       </c>
     </row>
-    <row r="70" spans="1:7">
-      <c r="A70" t="s">
+    <row r="112" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A112" s="3" t="s">
         <v>75</v>
       </c>
-      <c r="B70">
-        <v>3623</v>
-      </c>
-      <c r="C70">
-        <v>81.83577146011592</v>
-      </c>
-      <c r="D70">
+      <c r="B112" s="3">
+        <v>3623</v>
+      </c>
+      <c r="C112" s="3">
+        <v>81.835771460115922</v>
+      </c>
+      <c r="D112" s="3">
         <v>296491</v>
       </c>
-      <c r="E70" t="s">
+      <c r="E112" s="3" t="s">
         <v>197</v>
       </c>
-      <c r="F70" t="s">
+      <c r="F112" s="3" t="s">
         <v>318</v>
       </c>
-      <c r="G70">
+      <c r="G112" s="3">
         <v>12353.79166666667</v>
       </c>
     </row>
-    <row r="71" spans="1:7">
-      <c r="A71" t="s">
+    <row r="113" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="D113" s="3">
+        <f>SUM(D111:D112)</f>
+        <v>547348</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A115" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="B71">
-        <v>3623</v>
-      </c>
-      <c r="C71">
+      <c r="B115" s="2">
+        <v>3623</v>
+      </c>
+      <c r="C115" s="2">
         <v>151.1821694728126</v>
       </c>
-      <c r="D71">
+      <c r="D115" s="2">
         <v>547733</v>
       </c>
-      <c r="E71" t="s">
+      <c r="E115" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="F71" t="s">
+      <c r="F115" s="2" t="s">
         <v>319</v>
       </c>
-      <c r="G71">
-        <v>22822.20833333333</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7">
-      <c r="A72" t="s">
+      <c r="G115" s="2">
+        <v>22822.208333333328</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A117" s="3" t="s">
         <v>77</v>
       </c>
-      <c r="B72">
-        <v>3623</v>
-      </c>
-      <c r="C72">
-        <v>69.24482473088601</v>
-      </c>
-      <c r="D72">
+      <c r="B117" s="3">
+        <v>3623</v>
+      </c>
+      <c r="C117" s="3">
+        <v>69.244824730886009</v>
+      </c>
+      <c r="D117" s="3">
         <v>250874</v>
       </c>
-      <c r="E72" t="s">
+      <c r="E117" s="3" t="s">
         <v>199</v>
       </c>
-      <c r="F72" t="s">
+      <c r="F117" s="3" t="s">
         <v>320</v>
       </c>
-      <c r="G72">
+      <c r="G117" s="3">
         <v>10453.08333333333</v>
       </c>
     </row>
-    <row r="73" spans="1:7">
-      <c r="A73" t="s">
+    <row r="118" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A118" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="B73">
-        <v>3623</v>
-      </c>
-      <c r="C73">
+      <c r="B118" s="3">
+        <v>3623</v>
+      </c>
+      <c r="C118" s="3">
         <v>81.93734474192658</v>
       </c>
-      <c r="D73">
+      <c r="D118" s="3">
         <v>296859</v>
       </c>
-      <c r="E73" t="s">
+      <c r="E118" s="3" t="s">
         <v>200</v>
       </c>
-      <c r="F73" t="s">
+      <c r="F118" s="3" t="s">
         <v>321</v>
       </c>
-      <c r="G73">
+      <c r="G118" s="3">
         <v>12369.125</v>
       </c>
     </row>
-    <row r="74" spans="1:7">
-      <c r="A74" t="s">
+    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D119">
+        <f>SUM(D117:D118)</f>
+        <v>547733</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A121" s="3" t="s">
         <v>79</v>
       </c>
-      <c r="B74">
-        <v>3623</v>
-      </c>
-      <c r="C74">
-        <v>6.534915815622412</v>
-      </c>
-      <c r="D74">
+      <c r="B121" s="3">
+        <v>3623</v>
+      </c>
+      <c r="C121" s="3">
+        <v>6.5349158156224121</v>
+      </c>
+      <c r="D121" s="3">
         <v>23676</v>
       </c>
-      <c r="E74" t="s">
+      <c r="E121" s="3" t="s">
         <v>201</v>
       </c>
-      <c r="F74" t="s">
+      <c r="F121" s="3" t="s">
         <v>322</v>
       </c>
-      <c r="G74">
+      <c r="G121" s="3">
         <v>986.5</v>
       </c>
     </row>
-    <row r="75" spans="1:7">
-      <c r="A75" t="s">
+    <row r="122" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A122" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="B75">
-        <v>3623</v>
-      </c>
-      <c r="C75">
-        <v>6.448799337565553</v>
-      </c>
-      <c r="D75">
+      <c r="B122" s="3">
+        <v>3623</v>
+      </c>
+      <c r="C122" s="3">
+        <v>6.4487993375655526</v>
+      </c>
+      <c r="D122" s="3">
         <v>23364</v>
       </c>
-      <c r="E75" t="s">
+      <c r="E122" s="3" t="s">
         <v>202</v>
       </c>
-      <c r="F75" t="s">
+      <c r="F122" s="3" t="s">
         <v>323</v>
       </c>
-      <c r="G75">
+      <c r="G122" s="3">
         <v>973.5</v>
       </c>
     </row>
-    <row r="76" spans="1:7">
-      <c r="A76" t="s">
+    <row r="123" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A123" s="3" t="s">
         <v>81</v>
       </c>
-      <c r="B76">
-        <v>3623</v>
-      </c>
-      <c r="C76">
-        <v>5.229919955837704</v>
-      </c>
-      <c r="D76">
+      <c r="B123" s="3">
+        <v>3623</v>
+      </c>
+      <c r="C123" s="3">
+        <v>5.2299199558377039</v>
+      </c>
+      <c r="D123" s="3">
         <v>18948</v>
       </c>
-      <c r="E76" t="s">
+      <c r="E123" s="3" t="s">
         <v>203</v>
       </c>
-      <c r="F76" t="s">
+      <c r="F123" s="3" t="s">
         <v>324</v>
       </c>
-      <c r="G76">
+      <c r="G123" s="3">
         <v>789.5</v>
       </c>
     </row>
-    <row r="77" spans="1:7">
-      <c r="A77" t="s">
+    <row r="124" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A124" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="B77">
-        <v>3623</v>
-      </c>
-      <c r="C77">
-        <v>7.994203698592327</v>
-      </c>
-      <c r="D77">
+      <c r="B124" s="3">
+        <v>3623</v>
+      </c>
+      <c r="C124" s="3">
+        <v>7.9942036985923268</v>
+      </c>
+      <c r="D124" s="3">
         <v>28963</v>
       </c>
-      <c r="E77" t="s">
+      <c r="E124" s="3" t="s">
         <v>204</v>
       </c>
-      <c r="F77" t="s">
+      <c r="F124" s="3" t="s">
         <v>325</v>
       </c>
-      <c r="G77">
+      <c r="G124" s="3">
         <v>1206.791666666667</v>
       </c>
     </row>
-    <row r="78" spans="1:7">
-      <c r="A78" t="s">
+    <row r="125" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A125" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B125" s="3">
+        <v>3623</v>
+      </c>
+      <c r="C125" s="3">
+        <v>8.0182169472812586</v>
+      </c>
+      <c r="D125" s="3">
+        <v>29050</v>
+      </c>
+      <c r="E125" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="F125" s="3" t="s">
+        <v>327</v>
+      </c>
+      <c r="G125" s="3">
+        <v>1210.416666666667</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A126" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="B126" s="3">
+        <v>3623</v>
+      </c>
+      <c r="C126" s="3">
+        <v>80.809274082252273</v>
+      </c>
+      <c r="D126" s="3">
+        <v>292772</v>
+      </c>
+      <c r="E126" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="F126" s="3" t="s">
+        <v>329</v>
+      </c>
+      <c r="G126" s="3">
+        <v>12198.83333333333</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A127" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="B127" s="3">
+        <v>3623</v>
+      </c>
+      <c r="C127" s="3">
+        <v>36.146839635661053</v>
+      </c>
+      <c r="D127" s="3">
+        <v>130960</v>
+      </c>
+      <c r="E127" s="3" t="s">
+        <v>209</v>
+      </c>
+      <c r="F127" s="3" t="s">
+        <v>330</v>
+      </c>
+      <c r="G127" s="3">
+        <v>5456.666666666667</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D128">
+        <f>SUM(D121:D127)</f>
+        <v>547733</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
         <v>83</v>
       </c>
-      <c r="B78">
-        <v>3623</v>
-      </c>
-      <c r="C78">
-        <v>6.750483025117306</v>
-      </c>
-      <c r="D78">
+      <c r="B129">
+        <v>3623</v>
+      </c>
+      <c r="C129">
+        <v>6.7504830251173056</v>
+      </c>
+      <c r="D129">
         <v>24457</v>
       </c>
-      <c r="E78" t="s">
+      <c r="E129" t="s">
         <v>205</v>
       </c>
-      <c r="F78" t="s">
+      <c r="F129" t="s">
         <v>326</v>
       </c>
-      <c r="G78">
+      <c r="G129">
         <v>1019.041666666667</v>
       </c>
     </row>
-    <row r="79" spans="1:7">
-      <c r="A79" t="s">
-        <v>84</v>
-      </c>
-      <c r="B79">
-        <v>3623</v>
-      </c>
-      <c r="C79">
-        <v>8.018216947281259</v>
-      </c>
-      <c r="D79">
-        <v>29050</v>
-      </c>
-      <c r="E79" t="s">
-        <v>206</v>
-      </c>
-      <c r="F79" t="s">
-        <v>327</v>
-      </c>
-      <c r="G79">
-        <v>1210.416666666667</v>
-      </c>
-    </row>
-    <row r="80" spans="1:7">
-      <c r="A80" t="s">
+    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
         <v>85</v>
       </c>
-      <c r="B80">
-        <v>3623</v>
-      </c>
-      <c r="C80">
-        <v>88.82749102953353</v>
-      </c>
-      <c r="D80">
+      <c r="B130">
+        <v>3623</v>
+      </c>
+      <c r="C130">
+        <v>88.827491029533533</v>
+      </c>
+      <c r="D130">
         <v>321822</v>
       </c>
-      <c r="E80" t="s">
+      <c r="E130" t="s">
         <v>207</v>
       </c>
-      <c r="F80" t="s">
+      <c r="F130" t="s">
         <v>328</v>
       </c>
-      <c r="G80">
+      <c r="G130">
         <v>13409.25</v>
       </c>
     </row>
-    <row r="81" spans="1:7">
-      <c r="A81" t="s">
-        <v>86</v>
-      </c>
-      <c r="B81">
-        <v>3623</v>
-      </c>
-      <c r="C81">
-        <v>80.80927408225227</v>
-      </c>
-      <c r="D81">
-        <v>292772</v>
-      </c>
-      <c r="E81" t="s">
-        <v>208</v>
-      </c>
-      <c r="F81" t="s">
-        <v>329</v>
-      </c>
-      <c r="G81">
-        <v>12198.83333333333</v>
-      </c>
-    </row>
-    <row r="82" spans="1:7">
-      <c r="A82" t="s">
-        <v>87</v>
-      </c>
-      <c r="B82">
-        <v>3623</v>
-      </c>
-      <c r="C82">
-        <v>36.14683963566105</v>
-      </c>
-      <c r="D82">
-        <v>130960</v>
-      </c>
-      <c r="E82" t="s">
-        <v>209</v>
-      </c>
-      <c r="F82" t="s">
-        <v>330</v>
-      </c>
-      <c r="G82">
-        <v>5456.666666666667</v>
-      </c>
-    </row>
-    <row r="83" spans="1:7">
-      <c r="A83" t="s">
+    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A132" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="B83">
-        <v>3623</v>
-      </c>
-      <c r="C83">
-        <v>3.359922715981231</v>
-      </c>
-      <c r="D83">
+      <c r="B132" s="4">
+        <v>3623</v>
+      </c>
+      <c r="C132" s="4">
+        <v>3.3599227159812308</v>
+      </c>
+      <c r="D132" s="4">
         <v>12173</v>
       </c>
-      <c r="E83" t="s">
+      <c r="E132" s="4" t="s">
         <v>210</v>
       </c>
-      <c r="F83" t="s">
+      <c r="F132" s="4" t="s">
         <v>331</v>
       </c>
-      <c r="G83">
-        <v>507.2083333333333</v>
-      </c>
-    </row>
-    <row r="84" spans="1:7">
-      <c r="A84" t="s">
+      <c r="G132" s="4">
+        <v>507.20833333333331</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A133" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="B84">
-        <v>3623</v>
-      </c>
-      <c r="C84">
+      <c r="B133" s="4">
+        <v>3623</v>
+      </c>
+      <c r="C133" s="4">
         <v>3.267733922163953</v>
       </c>
-      <c r="D84">
+      <c r="D133" s="4">
         <v>11839</v>
       </c>
-      <c r="E84" t="s">
+      <c r="E133" s="4" t="s">
         <v>211</v>
       </c>
-      <c r="F84" t="s">
+      <c r="F133" s="4" t="s">
         <v>332</v>
       </c>
-      <c r="G84">
-        <v>493.2916666666667</v>
-      </c>
-    </row>
-    <row r="85" spans="1:7">
-      <c r="A85" t="s">
+      <c r="G133" s="4">
+        <v>493.29166666666669</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A134" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="B85">
-        <v>3623</v>
-      </c>
-      <c r="C85">
-        <v>2.673751035053823</v>
-      </c>
-      <c r="D85">
+      <c r="B134" s="4">
+        <v>3623</v>
+      </c>
+      <c r="C134" s="4">
+        <v>2.6737510350538232</v>
+      </c>
+      <c r="D134" s="4">
         <v>9687</v>
       </c>
-      <c r="E85" t="s">
+      <c r="E134" s="4" t="s">
         <v>212</v>
       </c>
-      <c r="F85" t="s">
+      <c r="F134" s="4" t="s">
         <v>333</v>
       </c>
-      <c r="G85">
+      <c r="G134" s="4">
         <v>403.625</v>
       </c>
     </row>
-    <row r="86" spans="1:7">
-      <c r="A86" t="s">
+    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A135" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="B86">
-        <v>3623</v>
-      </c>
-      <c r="C86">
-        <v>4.060447143251449</v>
-      </c>
-      <c r="D86">
+      <c r="B135" s="4">
+        <v>3623</v>
+      </c>
+      <c r="C135" s="4">
+        <v>4.0604471432514488</v>
+      </c>
+      <c r="D135" s="4">
         <v>14711</v>
       </c>
-      <c r="E86" t="s">
+      <c r="E135" s="4" t="s">
         <v>213</v>
       </c>
-      <c r="F86" t="s">
+      <c r="F135" s="4" t="s">
         <v>334</v>
       </c>
-      <c r="G86">
-        <v>612.9583333333334</v>
-      </c>
-    </row>
-    <row r="87" spans="1:7">
-      <c r="A87" t="s">
+      <c r="G135" s="4">
+        <v>612.95833333333337</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A136" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="B136" s="4">
+        <v>3623</v>
+      </c>
+      <c r="C136" s="4">
+        <v>4.0195970190449906</v>
+      </c>
+      <c r="D136" s="4">
+        <v>14563</v>
+      </c>
+      <c r="E136" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="F136" s="4" t="s">
+        <v>336</v>
+      </c>
+      <c r="G136" s="4">
+        <v>606.79166666666663</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A137" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="B137" s="4">
+        <v>3623</v>
+      </c>
+      <c r="C137" s="4">
+        <v>38.277118410157328</v>
+      </c>
+      <c r="D137" s="4">
+        <v>138678</v>
+      </c>
+      <c r="E137" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="F137" s="4" t="s">
+        <v>338</v>
+      </c>
+      <c r="G137" s="4">
+        <v>5778.25</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A138" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="B138" s="4">
+        <v>3623</v>
+      </c>
+      <c r="C138" s="4">
+        <v>13.58625448523323</v>
+      </c>
+      <c r="D138" s="4">
+        <v>49223</v>
+      </c>
+      <c r="E138" s="4" t="s">
+        <v>218</v>
+      </c>
+      <c r="F138" s="4" t="s">
+        <v>339</v>
+      </c>
+      <c r="G138" s="4">
+        <v>2050.958333333333</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D139">
+        <f>SUM(D132:D138)</f>
+        <v>250874</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A140" t="s">
         <v>92</v>
       </c>
-      <c r="B87">
-        <v>3623</v>
-      </c>
-      <c r="C87">
-        <v>3.427270218051339</v>
-      </c>
-      <c r="D87">
+      <c r="B140">
+        <v>3623</v>
+      </c>
+      <c r="C140">
+        <v>3.4272702180513388</v>
+      </c>
+      <c r="D140">
         <v>12417</v>
       </c>
-      <c r="E87" t="s">
+      <c r="E140" t="s">
         <v>214</v>
       </c>
-      <c r="F87" t="s">
+      <c r="F140" t="s">
         <v>335</v>
       </c>
-      <c r="G87">
+      <c r="G140">
         <v>517.375</v>
       </c>
     </row>
-    <row r="88" spans="1:7">
-      <c r="A88" t="s">
-        <v>93</v>
-      </c>
-      <c r="B88">
-        <v>3623</v>
-      </c>
-      <c r="C88">
-        <v>4.019597019044991</v>
-      </c>
-      <c r="D88">
-        <v>14563</v>
-      </c>
-      <c r="E88" t="s">
-        <v>215</v>
-      </c>
-      <c r="F88" t="s">
-        <v>336</v>
-      </c>
-      <c r="G88">
-        <v>606.7916666666666</v>
-      </c>
-    </row>
-    <row r="89" spans="1:7">
-      <c r="A89" t="s">
+    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A141" t="s">
         <v>94</v>
       </c>
-      <c r="B89">
-        <v>3623</v>
-      </c>
-      <c r="C89">
-        <v>42.29671542920232</v>
-      </c>
-      <c r="D89">
+      <c r="B141">
+        <v>3623</v>
+      </c>
+      <c r="C141">
+        <v>42.296715429202322</v>
+      </c>
+      <c r="D141">
         <v>153241</v>
       </c>
-      <c r="E89" t="s">
+      <c r="E141" t="s">
         <v>216</v>
       </c>
-      <c r="F89" t="s">
+      <c r="F141" t="s">
         <v>337</v>
       </c>
-      <c r="G89">
+      <c r="G141">
         <v>6385.041666666667</v>
       </c>
     </row>
-    <row r="90" spans="1:7">
-      <c r="A90" t="s">
-        <v>95</v>
-      </c>
-      <c r="B90">
-        <v>3623</v>
-      </c>
-      <c r="C90">
-        <v>38.27711841015733</v>
-      </c>
-      <c r="D90">
-        <v>138678</v>
-      </c>
-      <c r="E90" t="s">
-        <v>217</v>
-      </c>
-      <c r="F90" t="s">
-        <v>338</v>
-      </c>
-      <c r="G90">
-        <v>5778.25</v>
-      </c>
-    </row>
-    <row r="91" spans="1:7">
-      <c r="A91" t="s">
-        <v>96</v>
-      </c>
-      <c r="B91">
-        <v>3623</v>
-      </c>
-      <c r="C91">
-        <v>13.58625448523323</v>
-      </c>
-      <c r="D91">
-        <v>49223</v>
-      </c>
-      <c r="E91" t="s">
-        <v>218</v>
-      </c>
-      <c r="F91" t="s">
-        <v>339</v>
-      </c>
-      <c r="G91">
-        <v>2050.958333333333</v>
-      </c>
-    </row>
-    <row r="92" spans="1:7">
-      <c r="A92" t="s">
+    <row r="143" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A143" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="B92">
-        <v>3623</v>
-      </c>
-      <c r="C92">
-        <v>3.174993099641181</v>
-      </c>
-      <c r="D92">
+      <c r="B143" s="4">
+        <v>3623</v>
+      </c>
+      <c r="C143" s="4">
+        <v>3.1749930996411808</v>
+      </c>
+      <c r="D143" s="4">
         <v>11503</v>
       </c>
-      <c r="E92" t="s">
+      <c r="E143" s="4" t="s">
         <v>219</v>
       </c>
-      <c r="F92" t="s">
+      <c r="F143" s="4" t="s">
         <v>340</v>
       </c>
-      <c r="G92">
-        <v>479.2916666666667</v>
-      </c>
-    </row>
-    <row r="93" spans="1:7">
-      <c r="A93" t="s">
+      <c r="G143" s="4">
+        <v>479.29166666666669</v>
+      </c>
+    </row>
+    <row r="144" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A144" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="B93">
-        <v>3623</v>
-      </c>
-      <c r="C93">
-        <v>3.181065415401601</v>
-      </c>
-      <c r="D93">
+      <c r="B144" s="4">
+        <v>3623</v>
+      </c>
+      <c r="C144" s="4">
+        <v>3.1810654154016009</v>
+      </c>
+      <c r="D144" s="4">
         <v>11525</v>
       </c>
-      <c r="E93" t="s">
+      <c r="E144" s="4" t="s">
         <v>220</v>
       </c>
-      <c r="F93" t="s">
+      <c r="F144" s="4" t="s">
         <v>341</v>
       </c>
-      <c r="G93">
-        <v>480.2083333333333</v>
-      </c>
-    </row>
-    <row r="94" spans="1:7">
-      <c r="A94" t="s">
+      <c r="G144" s="4">
+        <v>480.20833333333331</v>
+      </c>
+    </row>
+    <row r="145" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A145" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="B94">
-        <v>3623</v>
-      </c>
-      <c r="C94">
-        <v>2.556168920783881</v>
-      </c>
-      <c r="D94">
+      <c r="B145" s="4">
+        <v>3623</v>
+      </c>
+      <c r="C145" s="4">
+        <v>2.5561689207838811</v>
+      </c>
+      <c r="D145" s="4">
         <v>9261</v>
       </c>
-      <c r="E94" t="s">
+      <c r="E145" s="4" t="s">
         <v>221</v>
       </c>
-      <c r="F94" t="s">
+      <c r="F145" s="4" t="s">
         <v>342</v>
       </c>
-      <c r="G94">
+      <c r="G145" s="4">
         <v>385.875</v>
       </c>
     </row>
-    <row r="95" spans="1:7">
-      <c r="A95" t="s">
+    <row r="146" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A146" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="B95">
-        <v>3623</v>
-      </c>
-      <c r="C95">
+      <c r="B146" s="4">
+        <v>3623</v>
+      </c>
+      <c r="C146" s="4">
         <v>3.933756555340878</v>
       </c>
-      <c r="D95">
+      <c r="D146" s="4">
         <v>14252</v>
       </c>
-      <c r="E95" t="s">
+      <c r="E146" s="4" t="s">
         <v>222</v>
       </c>
-      <c r="F95" t="s">
+      <c r="F146" s="4" t="s">
         <v>343</v>
       </c>
-      <c r="G95">
-        <v>593.8333333333334</v>
-      </c>
-    </row>
-    <row r="96" spans="1:7">
-      <c r="A96" t="s">
+      <c r="G146" s="4">
+        <v>593.83333333333337</v>
+      </c>
+    </row>
+    <row r="147" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A147" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="B147" s="4">
+        <v>3623</v>
+      </c>
+      <c r="C147" s="4">
+        <v>3.998619928236268</v>
+      </c>
+      <c r="D147" s="4">
+        <v>14487</v>
+      </c>
+      <c r="E147" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="F147" s="4" t="s">
+        <v>345</v>
+      </c>
+      <c r="G147" s="4">
+        <v>603.625</v>
+      </c>
+    </row>
+    <row r="148" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A148" s="4" t="s">
+        <v>104</v>
+      </c>
+      <c r="B148" s="4">
+        <v>3623</v>
+      </c>
+      <c r="C148" s="4">
+        <v>42.532155672094952</v>
+      </c>
+      <c r="D148" s="4">
+        <v>154094</v>
+      </c>
+      <c r="E148" s="4" t="s">
+        <v>226</v>
+      </c>
+      <c r="F148" s="4" t="s">
+        <v>347</v>
+      </c>
+      <c r="G148" s="4">
+        <v>6420.583333333333</v>
+      </c>
+    </row>
+    <row r="149" spans="1:7" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A149" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="B149" s="4">
+        <v>3623</v>
+      </c>
+      <c r="C149" s="4">
+        <v>22.560585150427819</v>
+      </c>
+      <c r="D149" s="4">
+        <v>81737</v>
+      </c>
+      <c r="E149" s="4" t="s">
+        <v>227</v>
+      </c>
+      <c r="F149" s="4" t="s">
+        <v>348</v>
+      </c>
+      <c r="G149" s="4">
+        <v>3405.708333333333</v>
+      </c>
+    </row>
+    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D150">
+        <f>SUM(D143:D149)</f>
+        <v>296859</v>
+      </c>
+    </row>
+    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A151" t="s">
         <v>101</v>
       </c>
-      <c r="B96">
-        <v>3623</v>
-      </c>
-      <c r="C96">
-        <v>3.323212807065967</v>
-      </c>
-      <c r="D96">
+      <c r="B151">
+        <v>3623</v>
+      </c>
+      <c r="C151">
+        <v>3.3232128070659668</v>
+      </c>
+      <c r="D151">
         <v>12040</v>
       </c>
-      <c r="E96" t="s">
+      <c r="E151" t="s">
         <v>223</v>
       </c>
-      <c r="F96" t="s">
+      <c r="F151" t="s">
         <v>344</v>
       </c>
-      <c r="G96">
-        <v>501.6666666666667</v>
-      </c>
-    </row>
-    <row r="97" spans="1:7">
-      <c r="A97" t="s">
-        <v>102</v>
-      </c>
-      <c r="B97">
-        <v>3623</v>
-      </c>
-      <c r="C97">
-        <v>3.998619928236268</v>
-      </c>
-      <c r="D97">
-        <v>14487</v>
-      </c>
-      <c r="E97" t="s">
-        <v>224</v>
-      </c>
-      <c r="F97" t="s">
-        <v>345</v>
-      </c>
-      <c r="G97">
-        <v>603.625</v>
-      </c>
-    </row>
-    <row r="98" spans="1:7">
-      <c r="A98" t="s">
+      <c r="G151">
+        <v>501.66666666666669</v>
+      </c>
+    </row>
+    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A152" t="s">
         <v>103</v>
       </c>
-      <c r="B98">
-        <v>3623</v>
-      </c>
-      <c r="C98">
-        <v>46.53077560033122</v>
-      </c>
-      <c r="D98">
+      <c r="B152">
+        <v>3623</v>
+      </c>
+      <c r="C152">
+        <v>46.530775600331218</v>
+      </c>
+      <c r="D152">
         <v>168581</v>
       </c>
-      <c r="E98" t="s">
+      <c r="E152" t="s">
         <v>225</v>
       </c>
-      <c r="F98" t="s">
+      <c r="F152" t="s">
         <v>346</v>
       </c>
-      <c r="G98">
+      <c r="G152">
         <v>7024.208333333333</v>
       </c>
     </row>
-    <row r="99" spans="1:7">
-      <c r="A99" t="s">
-        <v>104</v>
-      </c>
-      <c r="B99">
-        <v>3623</v>
-      </c>
-      <c r="C99">
-        <v>42.53215567209495</v>
-      </c>
-      <c r="D99">
-        <v>154094</v>
-      </c>
-      <c r="E99" t="s">
-        <v>226</v>
-      </c>
-      <c r="F99" t="s">
-        <v>347</v>
-      </c>
-      <c r="G99">
-        <v>6420.583333333333</v>
-      </c>
-    </row>
-    <row r="100" spans="1:7">
-      <c r="A100" t="s">
-        <v>105</v>
-      </c>
-      <c r="B100">
-        <v>3623</v>
-      </c>
-      <c r="C100">
-        <v>22.56058515042782</v>
-      </c>
-      <c r="D100">
-        <v>81737</v>
-      </c>
-      <c r="E100" t="s">
-        <v>227</v>
-      </c>
-      <c r="F100" t="s">
-        <v>348</v>
-      </c>
-      <c r="G100">
-        <v>3405.708333333333</v>
-      </c>
-    </row>
-    <row r="101" spans="1:7">
-      <c r="A101" t="s">
+    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A156" t="s">
         <v>106</v>
       </c>
-      <c r="B101">
-        <v>3623</v>
-      </c>
-      <c r="C101">
+      <c r="B156">
+        <v>3623</v>
+      </c>
+      <c r="C156">
         <v>4.467568313552305</v>
       </c>
-      <c r="D101">
+      <c r="D156">
         <v>16186</v>
       </c>
-      <c r="E101" t="s">
+      <c r="E156" t="s">
         <v>228</v>
       </c>
-      <c r="F101" t="s">
+      <c r="F156" t="s">
         <v>349</v>
       </c>
-      <c r="G101">
-        <v>674.4166666666666</v>
-      </c>
-    </row>
-    <row r="102" spans="1:7">
-      <c r="A102" t="s">
+      <c r="G156">
+        <v>674.41666666666663</v>
+      </c>
+    </row>
+    <row r="157" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A157" t="s">
         <v>107</v>
       </c>
-      <c r="B102">
-        <v>3623</v>
-      </c>
-      <c r="C102">
-        <v>5.871377311620204</v>
-      </c>
-      <c r="D102">
+      <c r="B157">
+        <v>3623</v>
+      </c>
+      <c r="C157">
+        <v>5.8713773116202042</v>
+      </c>
+      <c r="D157">
         <v>21272</v>
       </c>
-      <c r="E102" t="s">
+      <c r="E157" t="s">
         <v>229</v>
       </c>
-      <c r="F102" t="s">
+      <c r="F157" t="s">
         <v>350</v>
       </c>
-      <c r="G102">
-        <v>886.3333333333334</v>
-      </c>
-    </row>
-    <row r="103" spans="1:7">
-      <c r="A103" t="s">
+      <c r="G157">
+        <v>886.33333333333337</v>
+      </c>
+    </row>
+    <row r="158" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A158" t="s">
         <v>108</v>
       </c>
-      <c r="B103">
-        <v>3623</v>
-      </c>
-      <c r="C103">
+      <c r="B158">
+        <v>3623</v>
+      </c>
+      <c r="C158">
         <v>3.133314932376484</v>
       </c>
-      <c r="D103">
+      <c r="D158">
         <v>11352</v>
       </c>
-      <c r="E103" t="s">
+      <c r="E158" t="s">
         <v>230</v>
       </c>
-      <c r="F103" t="s">
+      <c r="F158" t="s">
         <v>351</v>
       </c>
-      <c r="G103">
+      <c r="G158">
         <v>473</v>
       </c>
     </row>
-    <row r="104" spans="1:7">
-      <c r="A104" t="s">
+    <row r="159" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A159" t="s">
         <v>109</v>
       </c>
-      <c r="B104">
-        <v>3623</v>
-      </c>
-      <c r="C104">
-        <v>4.528015456803754</v>
-      </c>
-      <c r="D104">
+      <c r="B159">
+        <v>3623</v>
+      </c>
+      <c r="C159">
+        <v>4.5280154568037538</v>
+      </c>
+      <c r="D159">
         <v>16405</v>
       </c>
-      <c r="E104" t="s">
+      <c r="E159" t="s">
         <v>231</v>
       </c>
-      <c r="F104" t="s">
+      <c r="F159" t="s">
         <v>352</v>
       </c>
-      <c r="G104">
-        <v>683.5416666666666</v>
-      </c>
-    </row>
-    <row r="105" spans="1:7">
-      <c r="A105" t="s">
+      <c r="G159">
+        <v>683.54166666666663</v>
+      </c>
+    </row>
+    <row r="160" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A160" t="s">
         <v>110</v>
       </c>
-      <c r="B105">
-        <v>3623</v>
-      </c>
-      <c r="C105">
-        <v>4.780292575213911</v>
-      </c>
-      <c r="D105">
+      <c r="B160">
+        <v>3623</v>
+      </c>
+      <c r="C160">
+        <v>4.7802925752139114</v>
+      </c>
+      <c r="D160">
         <v>17319</v>
       </c>
-      <c r="E105" t="s">
+      <c r="E160" t="s">
         <v>232</v>
       </c>
-      <c r="F105" t="s">
+      <c r="F160" t="s">
         <v>353</v>
       </c>
-      <c r="G105">
+      <c r="G160">
         <v>721.625</v>
       </c>
     </row>
-    <row r="106" spans="1:7">
-      <c r="A106" t="s">
+    <row r="161" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A161" t="s">
         <v>111</v>
       </c>
-      <c r="B106">
-        <v>3623</v>
-      </c>
-      <c r="C106">
-        <v>0.2301959701904499</v>
-      </c>
-      <c r="D106">
+      <c r="B161">
+        <v>3623</v>
+      </c>
+      <c r="C161">
+        <v>0.23019597019044991</v>
+      </c>
+      <c r="D161">
         <v>834</v>
       </c>
-      <c r="E106" t="s">
+      <c r="E161" t="s">
         <v>233</v>
       </c>
-      <c r="F106" t="s">
+      <c r="F161" t="s">
         <v>354</v>
       </c>
-      <c r="G106">
+      <c r="G161">
         <v>34.75</v>
       </c>
     </row>
-    <row r="107" spans="1:7">
-      <c r="A107" t="s">
+    <row r="162" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A162" t="s">
         <v>112</v>
       </c>
-      <c r="B107">
-        <v>3623</v>
-      </c>
-      <c r="C107">
-        <v>8.351918299751587</v>
-      </c>
-      <c r="D107">
+      <c r="B162">
+        <v>3623</v>
+      </c>
+      <c r="C162">
+        <v>8.3519182997515866</v>
+      </c>
+      <c r="D162">
         <v>30259</v>
       </c>
-      <c r="E107" t="s">
+      <c r="E162" t="s">
         <v>234</v>
       </c>
-      <c r="F107" t="s">
+      <c r="F162" t="s">
         <v>355</v>
       </c>
-      <c r="G107">
+      <c r="G162">
         <v>1260.791666666667</v>
       </c>
     </row>
-    <row r="108" spans="1:7">
-      <c r="A108" t="s">
+    <row r="167" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A167" t="s">
         <v>113</v>
       </c>
-      <c r="B108">
-        <v>3623</v>
-      </c>
-      <c r="C108">
-        <v>29.57659398288711</v>
-      </c>
-      <c r="D108">
+      <c r="B167">
+        <v>3623</v>
+      </c>
+      <c r="C167">
+        <v>29.576593982887111</v>
+      </c>
+      <c r="D167">
         <v>107156</v>
       </c>
-      <c r="E108" t="s">
+      <c r="E167" t="s">
         <v>235</v>
       </c>
-      <c r="F108" t="s">
+      <c r="F167" t="s">
         <v>356</v>
       </c>
-      <c r="G108">
+      <c r="G167">
         <v>4464.833333333333</v>
       </c>
     </row>
-    <row r="109" spans="1:7">
-      <c r="A109" t="s">
+    <row r="168" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A168" t="s">
         <v>114</v>
       </c>
-      <c r="B109">
-        <v>3623</v>
-      </c>
-      <c r="C109">
+      <c r="B168">
+        <v>3623</v>
+      </c>
+      <c r="C168">
         <v>13.61661606403533</v>
       </c>
-      <c r="D109">
+      <c r="D168">
         <v>49333</v>
       </c>
-      <c r="E109" t="s">
+      <c r="E168" t="s">
         <v>236</v>
       </c>
-      <c r="F109" t="s">
+      <c r="F168" t="s">
         <v>357</v>
       </c>
-      <c r="G109">
+      <c r="G168">
         <v>2055.541666666667</v>
       </c>
     </row>
-    <row r="110" spans="1:7">
-      <c r="A110" t="s">
+    <row r="169" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A169" t="s">
         <v>115</v>
       </c>
-      <c r="B110">
-        <v>3623</v>
-      </c>
-      <c r="C110">
-        <v>20.64090532707701</v>
-      </c>
-      <c r="D110">
+      <c r="B169">
+        <v>3623</v>
+      </c>
+      <c r="C169">
+        <v>20.640905327077011</v>
+      </c>
+      <c r="D169">
         <v>74782</v>
       </c>
-      <c r="E110" t="s">
+      <c r="E169" t="s">
         <v>237</v>
       </c>
-      <c r="F110" t="s">
+      <c r="F169" t="s">
         <v>358</v>
       </c>
-      <c r="G110">
+      <c r="G169">
         <v>3115.916666666667</v>
       </c>
     </row>
-    <row r="111" spans="1:7">
-      <c r="A111" t="s">
+    <row r="170" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A170" t="s">
         <v>116</v>
       </c>
-      <c r="B111">
-        <v>3623</v>
-      </c>
-      <c r="C111">
-        <v>22.321004692244</v>
-      </c>
-      <c r="D111">
+      <c r="B170">
+        <v>3623</v>
+      </c>
+      <c r="C170">
+        <v>22.321004692243999</v>
+      </c>
+      <c r="D170">
         <v>80869</v>
       </c>
-      <c r="E111" t="s">
+      <c r="E170" t="s">
         <v>238</v>
       </c>
-      <c r="F111" t="s">
+      <c r="F170" t="s">
         <v>359</v>
       </c>
-      <c r="G111">
+      <c r="G170">
         <v>3369.541666666667</v>
       </c>
     </row>
-    <row r="112" spans="1:7">
-      <c r="A112" t="s">
+    <row r="171" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A171" t="s">
         <v>117</v>
       </c>
-      <c r="B112">
-        <v>3623</v>
-      </c>
-      <c r="C112">
+      <c r="B171">
+        <v>3623</v>
+      </c>
+      <c r="C171">
         <v>1.419265801821695</v>
       </c>
-      <c r="D112">
+      <c r="D171">
         <v>5142</v>
       </c>
-      <c r="E112" t="s">
+      <c r="E171" t="s">
         <v>239</v>
       </c>
-      <c r="F112" t="s">
+      <c r="F171" t="s">
         <v>360</v>
       </c>
-      <c r="G112">
+      <c r="G171">
         <v>214.25</v>
       </c>
     </row>
-    <row r="113" spans="1:7">
-      <c r="A113" t="s">
+    <row r="172" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A172" t="s">
         <v>118</v>
       </c>
-      <c r="B113">
-        <v>3623</v>
-      </c>
-      <c r="C113">
-        <v>40.96411813414298</v>
-      </c>
-      <c r="D113">
+      <c r="B172">
+        <v>3623</v>
+      </c>
+      <c r="C172">
+        <v>40.964118134142979</v>
+      </c>
+      <c r="D172">
         <v>148413</v>
       </c>
-      <c r="E113" t="s">
+      <c r="E172" t="s">
         <v>240</v>
       </c>
-      <c r="F113" t="s">
+      <c r="F172" t="s">
         <v>361</v>
       </c>
-      <c r="G113">
+      <c r="G172">
         <v>6183.875</v>
       </c>
     </row>
-    <row r="114" spans="1:7">
-      <c r="A114" t="s">
+    <row r="175" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A175" t="s">
         <v>119</v>
       </c>
-      <c r="B114">
-        <v>3623</v>
-      </c>
-      <c r="C114">
+      <c r="B175">
+        <v>3623</v>
+      </c>
+      <c r="C175">
         <v>1.663814518354954</v>
       </c>
-      <c r="D114">
+      <c r="D175">
         <v>6028</v>
       </c>
-      <c r="E114" t="s">
+      <c r="E175" t="s">
         <v>241</v>
       </c>
-      <c r="F114" t="s">
+      <c r="F175" t="s">
         <v>362</v>
       </c>
-      <c r="G114">
-        <v>251.1666666666667</v>
-      </c>
-    </row>
-    <row r="115" spans="1:7">
-      <c r="A115" t="s">
+      <c r="G175">
+        <v>251.16666666666671</v>
+      </c>
+    </row>
+    <row r="176" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A176" t="s">
         <v>120</v>
       </c>
-      <c r="B115">
-        <v>3623</v>
-      </c>
-      <c r="C115">
-        <v>6.848192105989511</v>
-      </c>
-      <c r="D115">
+      <c r="B176">
+        <v>3623</v>
+      </c>
+      <c r="C176">
+        <v>6.8481921059895106</v>
+      </c>
+      <c r="D176">
         <v>24811</v>
       </c>
-      <c r="E115" t="s">
+      <c r="E176" t="s">
         <v>242</v>
       </c>
-      <c r="F115" t="s">
+      <c r="F176" t="s">
         <v>363</v>
       </c>
-      <c r="G115">
+      <c r="G176">
         <v>1033.791666666667</v>
       </c>
     </row>
-    <row r="116" spans="1:7">
-      <c r="A116" t="s">
+    <row r="179" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A179" t="s">
         <v>121</v>
       </c>
-      <c r="B116">
-        <v>3623</v>
-      </c>
-      <c r="C116">
-        <v>63.36351090256694</v>
-      </c>
-      <c r="D116">
+      <c r="B179">
+        <v>3623</v>
+      </c>
+      <c r="C179">
+        <v>63.363510902566937</v>
+      </c>
+      <c r="D179">
         <v>229566</v>
       </c>
-      <c r="E116" t="s">
+      <c r="E179" t="s">
         <v>243</v>
       </c>
-      <c r="F116" t="s">
+      <c r="F179" t="s">
         <v>364</v>
       </c>
-      <c r="G116">
+      <c r="G179">
         <v>9565.25</v>
       </c>
     </row>
-    <row r="117" spans="1:7">
-      <c r="A117" t="s">
+    <row r="180" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A180" t="s">
         <v>122</v>
       </c>
-      <c r="B117">
-        <v>3623</v>
-      </c>
-      <c r="C117">
-        <v>38.82859508694452</v>
-      </c>
-      <c r="D117">
+      <c r="B180">
+        <v>3623</v>
+      </c>
+      <c r="C180">
+        <v>38.828595086944517</v>
+      </c>
+      <c r="D180">
         <v>140676</v>
       </c>
-      <c r="E117" t="s">
+      <c r="E180" t="s">
         <v>244</v>
       </c>
-      <c r="F117" t="s">
+      <c r="F180" t="s">
         <v>365</v>
       </c>
-      <c r="G117">
+      <c r="G180">
         <v>5861.5</v>
       </c>
     </row>
-    <row r="118" spans="1:7">
-      <c r="A118" t="s">
+    <row r="181" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A181" t="s">
         <v>123</v>
       </c>
-      <c r="B118">
-        <v>3623</v>
-      </c>
-      <c r="C118">
-        <v>59.8492961634005</v>
-      </c>
-      <c r="D118">
+      <c r="B181">
+        <v>3623</v>
+      </c>
+      <c r="C181">
+        <v>59.849296163400503</v>
+      </c>
+      <c r="D181">
         <v>216834</v>
       </c>
-      <c r="E118" t="s">
+      <c r="E181" t="s">
         <v>245</v>
       </c>
-      <c r="F118" t="s">
+      <c r="F181" t="s">
         <v>366</v>
       </c>
-      <c r="G118">
+      <c r="G181">
         <v>9034.75</v>
       </c>
     </row>
-    <row r="119" spans="1:7">
-      <c r="A119" t="s">
+    <row r="183" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A183" t="s">
+        <v>127</v>
+      </c>
+      <c r="B183">
+        <v>3623</v>
+      </c>
+      <c r="C183">
+        <v>28.434446591222741</v>
+      </c>
+      <c r="D183">
+        <v>103018</v>
+      </c>
+      <c r="E183" t="s">
+        <v>249</v>
+      </c>
+      <c r="F183" t="s">
+        <v>370</v>
+      </c>
+      <c r="G183">
+        <v>4292.416666666667</v>
+      </c>
+    </row>
+    <row r="185" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A185" t="s">
         <v>124</v>
       </c>
-      <c r="B119">
-        <v>3623</v>
-      </c>
-      <c r="C119">
+      <c r="B185">
+        <v>3623</v>
+      </c>
+      <c r="C185">
         <v>0.1890698316312448</v>
       </c>
-      <c r="D119">
+      <c r="D185">
         <v>685</v>
       </c>
-      <c r="E119" t="s">
+      <c r="E185" t="s">
         <v>246</v>
       </c>
-      <c r="F119" t="s">
+      <c r="F185" t="s">
         <v>367</v>
       </c>
-      <c r="G119">
-        <v>28.54166666666667</v>
-      </c>
-    </row>
-    <row r="120" spans="1:7">
-      <c r="A120" t="s">
+      <c r="G185">
+        <v>28.541666666666671</v>
+      </c>
+    </row>
+    <row r="186" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A186" t="s">
         <v>125</v>
       </c>
-      <c r="B120">
-        <v>3623</v>
-      </c>
-      <c r="C120">
-        <v>6.678167264697764</v>
-      </c>
-      <c r="D120">
+      <c r="B186">
+        <v>3623</v>
+      </c>
+      <c r="C186">
+        <v>6.6781672646977643</v>
+      </c>
+      <c r="D186">
         <v>24195</v>
       </c>
-      <c r="E120" t="s">
+      <c r="E186" t="s">
         <v>247</v>
       </c>
-      <c r="F120" t="s">
+      <c r="F186" t="s">
         <v>368</v>
       </c>
-      <c r="G120">
+      <c r="G186">
         <v>1008.125</v>
       </c>
     </row>
-    <row r="121" spans="1:7">
-      <c r="A121" t="s">
+    <row r="187" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A187" t="s">
         <v>126</v>
       </c>
-      <c r="B121">
-        <v>3623</v>
-      </c>
-      <c r="C121">
-        <v>56.49627380623792</v>
-      </c>
-      <c r="D121">
+      <c r="B187">
+        <v>3623</v>
+      </c>
+      <c r="C187">
+        <v>56.496273806237923</v>
+      </c>
+      <c r="D187">
         <v>204686</v>
       </c>
-      <c r="E121" t="s">
+      <c r="E187" t="s">
         <v>248</v>
       </c>
-      <c r="F121" t="s">
+      <c r="F187" t="s">
         <v>369</v>
       </c>
-      <c r="G121">
-        <v>8528.583333333334</v>
-      </c>
-    </row>
-    <row r="122" spans="1:7">
-      <c r="A122" t="s">
-        <v>127</v>
-      </c>
-      <c r="B122">
-        <v>3623</v>
-      </c>
-      <c r="C122">
-        <v>28.43444659122274</v>
-      </c>
-      <c r="D122">
-        <v>103018</v>
-      </c>
-      <c r="E122" t="s">
-        <v>249</v>
-      </c>
-      <c r="F122" t="s">
-        <v>370</v>
-      </c>
-      <c r="G122">
-        <v>4292.416666666667</v>
-      </c>
-    </row>
-    <row r="123" spans="1:7">
-      <c r="A123" t="s">
+      <c r="G187">
+        <v>8528.5833333333339</v>
+      </c>
+    </row>
+    <row r="188" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D188">
+        <f>SUM(D184:D187)</f>
+        <v>229566</v>
+      </c>
+    </row>
+    <row r="191" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A191" t="s">
         <v>128</v>
       </c>
-      <c r="B123">
-        <v>3623</v>
-      </c>
-      <c r="C123">
-        <v>51.80872205354679</v>
-      </c>
-      <c r="D123">
+      <c r="B191">
+        <v>3623</v>
+      </c>
+      <c r="C191">
+        <v>51.808722053546788</v>
+      </c>
+      <c r="D191">
         <v>187703</v>
       </c>
-      <c r="E123" t="s">
+      <c r="E191" t="s">
         <v>250</v>
       </c>
-      <c r="F123" t="s">
+      <c r="F191" t="s">
         <v>371</v>
       </c>
-      <c r="G123">
+      <c r="G191">
         <v>7820.958333333333</v>
       </c>
     </row>
